--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
   <si>
     <t>benchmark full</t>
   </si>
@@ -63,6 +63,12 @@
   </si>
   <si>
     <t>sf 4</t>
+  </si>
+  <si>
+    <t>gen</t>
+  </si>
+  <si>
+    <t>solve</t>
   </si>
 </sst>
 </file>
@@ -414,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I42"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+      <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -425,7 +431,7 @@
     <col min="1" max="1" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>1</v>
       </c>
@@ -448,7 +454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -467,40 +473,72 @@
       <c r="I3">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4">
         <v>43.6</v>
       </c>
       <c r="C4">
         <v>57.56</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>1.57</v>
+      </c>
+      <c r="M4">
+        <v>38.79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>43.8</v>
       </c>
       <c r="C5">
         <v>44.93</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>1.7</v>
+      </c>
+      <c r="M5">
+        <v>30.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>43.4</v>
       </c>
       <c r="C6">
         <v>31.74</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>1.58</v>
+      </c>
+      <c r="M6">
+        <v>50.98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>44.6</v>
       </c>
       <c r="C7">
         <v>57.78</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <f>AVERAGE(L4:L6)</f>
+        <v>1.6166666666666665</v>
+      </c>
+      <c r="M7">
+        <f>AVERAGE(M4:M6)</f>
+        <v>40.066666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8">
         <f>AVERAGE(B3:B7)</f>
         <v>43.6</v>
@@ -510,7 +548,7 @@
         <v>45.694000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -535,40 +573,72 @@
       <c r="I10">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>26.6</v>
       </c>
       <c r="C11">
         <v>14.67</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="M11">
+        <v>19.989999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>26.6</v>
       </c>
       <c r="C12">
         <v>19.72</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>1.07</v>
+      </c>
+      <c r="M12">
+        <v>23.32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>27</v>
       </c>
       <c r="C13">
         <v>20.29</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M13">
+        <v>19.25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>26.4</v>
       </c>
       <c r="C14">
         <v>25.69</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <f>AVERAGE(L11:L13)</f>
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="M14">
+        <f>AVERAGE(M11:M13)</f>
+        <v>20.853333333333335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15">
         <f>AVERAGE(B10:B14)</f>
         <v>26.640000000000004</v>
@@ -578,7 +648,7 @@
         <v>18.391999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -597,16 +667,28 @@
       <c r="I17">
         <v>3079</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>96.8</v>
       </c>
       <c r="C18">
         <v>237.17</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>29.83</v>
+      </c>
+      <c r="M18">
+        <v>138.69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>96.6</v>
       </c>
@@ -614,7 +696,7 @@
         <v>192.34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>96</v>
       </c>
@@ -626,15 +708,23 @@
         <v>6.5032142857142849</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>94.4</v>
       </c>
       <c r="C21">
         <v>155.13</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <f>AVERAGE(L18:L20)</f>
+        <v>29.83</v>
+      </c>
+      <c r="M21">
+        <f>AVERAGE(M18:M20)</f>
+        <v>138.69</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B22">
         <f>AVERAGE(B17:B21)</f>
         <v>95.88</v>
@@ -644,7 +734,7 @@
         <v>182.08999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -663,24 +753,42 @@
       <c r="I24">
         <v>684</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L24" t="s">
+        <v>13</v>
+      </c>
+      <c r="M24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>104</v>
       </c>
       <c r="C25">
         <v>145.71</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>9.56</v>
+      </c>
+      <c r="M25">
+        <v>61.19</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>106.8</v>
       </c>
       <c r="C26">
         <v>94.71</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>9.5</v>
+      </c>
+      <c r="M26">
+        <v>59.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>105.4</v>
       </c>
@@ -691,16 +799,30 @@
         <f>C29/H24</f>
         <v>3.9832142857142858</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="M27">
+        <v>56.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>106.6</v>
       </c>
       <c r="C28">
         <v>113.57</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <f>AVERAGE(L25:L27)</f>
+        <v>9.56</v>
+      </c>
+      <c r="M28">
+        <f>AVERAGE(M25:M27)</f>
+        <v>59.180000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B29">
         <f>AVERAGE(B24:B28)</f>
         <v>105.72</v>
@@ -710,7 +832,7 @@
         <v>111.53</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>8</v>
       </c>
@@ -729,8 +851,24 @@
       <c r="I31">
         <v>18876</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L31" t="s">
+        <v>13</v>
+      </c>
+      <c r="M31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L35" t="e">
+        <f>AVERAGE(L32:L34)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M35" t="e">
+        <f>AVERAGE(M32:M34)</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -749,24 +887,52 @@
       <c r="I37">
         <v>6580</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L37" t="s">
+        <v>13</v>
+      </c>
+      <c r="M37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B38">
         <v>317.60000000000002</v>
       </c>
       <c r="C38">
         <v>350.69</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>18.13</v>
+      </c>
+      <c r="M38">
+        <v>245.82</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B39">
         <v>316</v>
       </c>
       <c r="C39">
         <v>296.41000000000003</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>18.29</v>
+      </c>
+      <c r="M39">
+        <v>217.75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <f>AVERAGE(L38:L40)</f>
+        <v>18.21</v>
+      </c>
+      <c r="M41">
+        <f>AVERAGE(M38:M40)</f>
+        <v>231.785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B42">
         <f>AVERAGE(B37:B41)</f>
         <v>316.33333333333331</v>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="agility" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="25">
   <si>
     <t>benchmark full</t>
   </si>
@@ -69,6 +70,36 @@
   </si>
   <si>
     <t>solve</t>
+  </si>
+  <si>
+    <t>BENCHMARK</t>
+  </si>
+  <si>
+    <t>SPEED</t>
+  </si>
+  <si>
+    <t>ACC</t>
+  </si>
+  <si>
+    <t>LOW</t>
+  </si>
+  <si>
+    <t>MED</t>
+  </si>
+  <si>
+    <t>HIGH</t>
+  </si>
+  <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>LEUVEN</t>
+  </si>
+  <si>
+    <t>SCORES</t>
   </si>
 </sst>
 </file>
@@ -422,7 +453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B21" workbookViewId="0">
+    <sheetView topLeftCell="B21" workbookViewId="0">
       <selection activeCell="S34" sqref="S34"/>
     </sheetView>
   </sheetViews>
@@ -945,4 +976,372 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:P15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" t="s">
+        <v>18</v>
+      </c>
+      <c r="O3" t="s">
+        <v>19</v>
+      </c>
+      <c r="P3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4">
+        <v>33.159999999999997</v>
+      </c>
+      <c r="C4">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="D4">
+        <v>132.07</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4">
+        <v>135.19</v>
+      </c>
+      <c r="I4">
+        <v>960.39</v>
+      </c>
+      <c r="J4" t="s">
+        <v>22</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>402.68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>22</v>
+      </c>
+      <c r="P4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5">
+        <v>8.91</v>
+      </c>
+      <c r="C5">
+        <v>17.2</v>
+      </c>
+      <c r="D5">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="G5" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5">
+        <v>37.74</v>
+      </c>
+      <c r="I5">
+        <v>65.84</v>
+      </c>
+      <c r="J5">
+        <v>800.51</v>
+      </c>
+      <c r="M5" t="s">
+        <v>19</v>
+      </c>
+      <c r="N5">
+        <v>139.88999999999999</v>
+      </c>
+      <c r="O5">
+        <v>311.73</v>
+      </c>
+      <c r="P5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6">
+        <v>7.35</v>
+      </c>
+      <c r="C6">
+        <v>5.65</v>
+      </c>
+      <c r="D6">
+        <v>4.82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6">
+        <v>25.9</v>
+      </c>
+      <c r="I6">
+        <v>22.24</v>
+      </c>
+      <c r="J6">
+        <v>93.68</v>
+      </c>
+      <c r="M6" t="s">
+        <v>20</v>
+      </c>
+      <c r="N6">
+        <v>99.5</v>
+      </c>
+      <c r="O6">
+        <v>119.17</v>
+      </c>
+      <c r="P6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+      <c r="N11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>17</v>
+      </c>
+      <c r="N12" t="s">
+        <v>18</v>
+      </c>
+      <c r="O12" t="s">
+        <v>19</v>
+      </c>
+      <c r="P12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13">
+        <v>98.88</v>
+      </c>
+      <c r="C13">
+        <v>84.96</v>
+      </c>
+      <c r="D13">
+        <v>83.52</v>
+      </c>
+      <c r="G13" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13">
+        <v>305.45</v>
+      </c>
+      <c r="I13">
+        <v>150.13</v>
+      </c>
+      <c r="J13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N13">
+        <v>280.92</v>
+      </c>
+      <c r="O13" t="s">
+        <v>22</v>
+      </c>
+      <c r="P13" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14">
+        <v>93.4</v>
+      </c>
+      <c r="C14">
+        <v>45.12</v>
+      </c>
+      <c r="D14">
+        <v>47.4</v>
+      </c>
+      <c r="G14" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14">
+        <v>317.32</v>
+      </c>
+      <c r="I14">
+        <v>107.72</v>
+      </c>
+      <c r="J14">
+        <v>74.2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>19</v>
+      </c>
+      <c r="N14">
+        <v>284.39999999999998</v>
+      </c>
+      <c r="O14">
+        <v>99.6</v>
+      </c>
+      <c r="P14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15">
+        <v>96</v>
+      </c>
+      <c r="C15">
+        <v>48.44</v>
+      </c>
+      <c r="D15">
+        <v>33.15</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+      <c r="H15">
+        <v>321.10000000000002</v>
+      </c>
+      <c r="I15">
+        <v>108.52</v>
+      </c>
+      <c r="J15">
+        <v>61.8</v>
+      </c>
+      <c r="M15" t="s">
+        <v>20</v>
+      </c>
+      <c r="N15">
+        <v>295.7</v>
+      </c>
+      <c r="O15">
+        <v>101.73</v>
+      </c>
+      <c r="P15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="682" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="genetic" sheetId="8" r:id="rId8"/>
     <sheet name="stability" sheetId="9" r:id="rId9"/>
     <sheet name="max time" sheetId="10" r:id="rId10"/>
+    <sheet name="approach margin" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="60">
   <si>
     <t>benchmark full</t>
   </si>
@@ -194,14 +195,32 @@
     <t>report average surface area?</t>
   </si>
   <si>
-    <t>benchmark, sf and leuven: each 50 runs</t>
+    <t>1,1 - 1</t>
+  </si>
+  <si>
+    <t>1,1 - 5</t>
+  </si>
+  <si>
+    <t>2 - 1</t>
+  </si>
+  <si>
+    <t>3 - 1</t>
+  </si>
+  <si>
+    <t>samples</t>
+  </si>
+  <si>
+    <t>time CI</t>
+  </si>
+  <si>
+    <t>score CI</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,13 +235,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -234,14 +265,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1220,31 +1255,40 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>points!$B$4:$P$4</c15:sqref>
+                      <c15:sqref>points!$B$8:$P$8</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(points!$B$4:$D$4,points!$H$4:$J$4,points!$N$4:$P$4)</c:f>
+                <c:f>(points!$B$8:$D$8,points!$H$8:$J$8,points!$N$8:$P$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>3.14</c:v>
+                    <c:v>0.65740398538493816</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1</c:v>
+                    <c:v>1.8933234779086219</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.25</c:v>
+                    <c:v>2.094927366760003</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.66</c:v>
+                    <c:v>1.1307348548620937</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.3199999999999998</c:v>
+                    <c:v>2.0072735020420112</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.65</c:v>
+                    <c:v>2.6208505550679537</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>28.154421347418946</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25.156659174063631</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>22.772474053734257</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1254,31 +1298,40 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>points!$B$4:$P$4</c15:sqref>
+                      <c15:sqref>points!$B$8:$P$8</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(points!$B$4:$D$4,points!$H$4:$J$4,points!$N$4:$P$4)</c:f>
+                <c:f>(points!$B$8:$D$8,points!$H$8:$J$8,points!$N$8:$P$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>3.14</c:v>
+                    <c:v>0.65740398538493816</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.1</c:v>
+                    <c:v>1.8933234779086219</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>6.25</c:v>
+                    <c:v>2.094927366760003</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.66</c:v>
+                    <c:v>1.1307348548620937</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>2.3199999999999998</c:v>
+                    <c:v>2.0072735020420112</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.65</c:v>
+                    <c:v>2.6208505550679537</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>28.154421347418946</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>25.156659174063631</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>22.772474053734257</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1366,22 +1419,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>15.35</c:v>
+                  <c:v>7.07</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>23.74</c:v>
+                  <c:v>9.69</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>34.200000000000003</c:v>
+                  <c:v>13.84</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>24.94</c:v>
+                  <c:v>24.69</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>27.53</c:v>
+                  <c:v>30.21</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>34.14</c:v>
+                  <c:v>43.61</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>119.79</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>116.28</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>146.04</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1483,31 +1545,40 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>points!$B$6:$P$6</c15:sqref>
+                      <c15:sqref>points!$B$9:$P$9</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(points!$B$6:$D$6,points!$H$6:$J$6,points!$N$6:$P$6)</c:f>
+                <c:f>(points!$B$9:$D$9,points!$H$9:$J$9,points!$N$9:$P$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0.41</c:v>
+                    <c:v>1.0343156036723025</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.57999999999999996</c:v>
+                    <c:v>0.53468857477974974</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.44</c:v>
+                    <c:v>0.73629246363113066</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.18</c:v>
+                    <c:v>1.0693771495594995</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1100000000000001</c:v>
+                    <c:v>1.5427080190366547</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.51</c:v>
+                    <c:v>1.8232003861342285</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.47333086947715547</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.7275270771593314</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2709810384108804</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1517,31 +1588,40 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>points!$B$6:$P$6</c15:sqref>
+                      <c15:sqref>points!$B$9:$P$9</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(points!$B$6:$D$6,points!$H$6:$J$6,points!$N$6:$P$6)</c:f>
+                <c:f>(points!$B$9:$D$9,points!$H$9:$J$9,points!$N$9:$P$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0.41</c:v>
+                    <c:v>1.0343156036723025</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.57999999999999996</c:v>
+                    <c:v>0.53468857477974974</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.44</c:v>
+                    <c:v>0.73629246363113066</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.18</c:v>
+                    <c:v>1.0693771495594995</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.1100000000000001</c:v>
+                    <c:v>1.5427080190366547</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>1.51</c:v>
+                    <c:v>1.8232003861342285</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.47333086947715547</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.7275270771593314</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1.2709810384108804</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1629,22 +1709,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>44.68</c:v>
+                  <c:v>53.44</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.28</c:v>
+                  <c:v>52.36</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>45.12</c:v>
+                  <c:v>52.24</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.88</c:v>
+                  <c:v>108.84</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>106.32</c:v>
+                  <c:v>107.32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>106.96</c:v>
+                  <c:v>107.64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>100.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.92</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>99.76</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1867,22 +1956,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>3.14</c:v>
+                        <c:v>0.75</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>3.1</c:v>
+                        <c:v>2.16</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>6.25</c:v>
+                        <c:v>2.39</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.66</c:v>
+                        <c:v>1.29</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.3199999999999998</c:v>
+                        <c:v>2.29</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1.65</c:v>
+                        <c:v>2.99</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>32.119999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>28.7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>25.98</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2056,22 +2154,31 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
                       <c:pt idx="0">
-                        <c:v>0.41</c:v>
+                        <c:v>1.18</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.57999999999999996</c:v>
+                        <c:v>0.61</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.44</c:v>
+                        <c:v>0.84</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.18</c:v>
+                        <c:v>1.22</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>1.1100000000000001</c:v>
+                        <c:v>1.76</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>1.51</c:v>
+                        <c:v>2.08</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.54</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.83</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.45</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -2304,8 +2411,13 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
-              <a:t>Corner Cutting Prevention </a:t>
+              <a:t>Convexity</a:t>
             </a:r>
+            <a:r>
+              <a:rPr lang="nl-BE" baseline="0"/>
+              <a:t> Test</a:t>
+            </a:r>
+            <a:endParaRPr lang="nl-BE"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -2436,31 +2548,31 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>convexity!$B$4:$K$4</c15:sqref>
+                      <c15:sqref>convexity!$B$8:$K$8</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(convexity!$B$4:$C$4,convexity!$F$4:$G$4,convexity!$J$4:$K$4)</c:f>
+                <c:f>(convexity!$B$8:$C$8,convexity!$F$8:$G$8,convexity!$J$8:$K$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.22</c:v>
+                    <c:v>0.19283850237958183</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.17</c:v>
+                    <c:v>0.14901157002058599</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.66</c:v>
+                    <c:v>4.9612087430383331</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.25</c:v>
+                    <c:v>0.21913466179497937</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1</c:v>
+                    <c:v>0.11316065276116666</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.08</c:v>
+                    <c:v>1.8232003861342285</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2470,31 +2582,31 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>convexity!$B$4:$K$4</c15:sqref>
+                      <c15:sqref>convexity!$B$8:$K$8</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(convexity!$B$4:$C$4,convexity!$F$4:$G$4,convexity!$J$4:$K$4)</c:f>
+                <c:f>(convexity!$B$8:$C$8,convexity!$F$8:$G$8,convexity!$J$8:$K$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.22</c:v>
+                    <c:v>0.19283850237958183</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.17</c:v>
+                    <c:v>0.14901157002058599</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.66</c:v>
+                    <c:v>4.9612087430383331</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.25</c:v>
+                    <c:v>0.21913466179497937</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.1</c:v>
+                    <c:v>0.11316065276116666</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>2.08</c:v>
+                    <c:v>1.8232003861342285</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2690,11 +2802,11 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>convexity!$B$6:$K$6</c15:sqref>
+                      <c15:sqref>convexity!$B$9:$K$9</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(convexity!$B$6:$C$6,convexity!$F$6:$G$6,convexity!$J$6:$K$6)</c:f>
+                <c:f>(convexity!$B$9:$C$9,convexity!$F$9:$G$9,convexity!$J$9:$K$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2702,19 +2814,19 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.28000000000000003</c:v>
+                    <c:v>0.24543082121037693</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.79</c:v>
+                    <c:v>0.69246553127213484</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.87</c:v>
+                    <c:v>0.98449767902214991</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.64</c:v>
+                    <c:v>0.56098473419514716</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2724,11 +2836,11 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>convexity!$B$6:$K$6</c15:sqref>
+                      <c15:sqref>convexity!$B$9:$K$9</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(convexity!$B$6:$C$6,convexity!$F$6:$G$6,convexity!$J$6:$K$6)</c:f>
+                <c:f>(convexity!$B$9:$C$9,convexity!$F$9:$G$9,convexity!$J$9:$K$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
@@ -2736,19 +2848,19 @@
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.28000000000000003</c:v>
+                    <c:v>0.24543082121037693</c:v>
                   </c:pt>
                   <c:pt idx="2">
                     <c:v>0</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.79</c:v>
+                    <c:v>0.69246553127213484</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0.87</c:v>
+                    <c:v>0.98449767902214991</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.64</c:v>
+                    <c:v>0.56098473419514716</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3089,7 +3201,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>convexity!$A$6</c15:sqref>
@@ -3322,6 +3434,2490 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279299688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Stability</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stability!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>stability!$B$8:$K$8</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(stability!$B$8:$C$8,stability!$F$8:$G$8,stability!$J$8:$K$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.8260138575108773</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8266548057035843</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.64501572073864988</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3145019161798071</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14.050127145979205</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>24.698489800417622</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>stability!$B$8:$K$8</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(stability!$B$8:$C$8,stability!$F$8:$G$8,stability!$J$8:$K$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.8260138575108773</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1.8266548057035843</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.64501572073864988</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.3145019161798071</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>14.050127145979205</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>24.698489800417622</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>stability!$B$1:$K$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>stability!$B$1:$K$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BENCHMARK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LEUVEN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>stability!$B$3:$K$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(stability!$B$3:$C$3,stability!$F$3:$G$3,stability!$J$3:$K$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>20.149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50.49</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.83</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>59.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>195.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>477.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-122B-434A-8435-A5C04B7D4C23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>stability!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>stability!$B$9:$K$9</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(stability!$B$9:$C$9,stability!$F$9:$G$9,stability!$J$9:$K$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.13027735336580951</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.1577878733768989E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.45547162736369584</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.18848638359308609</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.37230620828462252</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.5494706003449481</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>stability!$B$9:$K$9</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(stability!$B$9:$C$9,stability!$F$9:$G$9,stability!$J$9:$K$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="6"/>
+                  <c:pt idx="0">
+                    <c:v>0.13027735336580951</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.1577878733768989E-2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.45547162736369584</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.18848638359308609</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.37230620828462252</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.5494706003449481</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>stability!$B$1:$K$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>stability!$B$1:$K$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="6"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BENCHMARK</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>LEUVEN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>stability!$B$5:$K$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(stability!$B$5:$C$5,stability!$F$5:$G$5,stability!$J$5:$K$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>45.03</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43.38</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>106.68</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>100.19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.07</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-122B-434A-8435-A5C04B7D4C23}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="279299688"/>
+        <c:axId val="279301984"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>stability!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>time std</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inBase"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numLit>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numLit>
+                  </c:plus>
+                  <c:minus>
+                    <c:numLit>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numLit>
+                  </c:minus>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>stability!$B$1:$K$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>stability!$B$1:$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="6"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>5</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>BENCHMARK</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>SF</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>LEUVEN</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>stability!$B$4:$K$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(stability!$B$4:$C$4,stability!$F$4:$G$4,stability!$J$4:$K$4)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>2.98</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>6.59</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.2799999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>8.35</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>47.55</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>69.02</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-122B-434A-8435-A5C04B7D4C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>stability!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>score std</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inBase"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>stability!$B$1:$K$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>stability!$B$1:$K$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="6"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>5</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>5</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>BENCHMARK</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>SF</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>LEUVEN</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>stability!$B$6:$K$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(stability!$B$6:$C$6,stability!$F$6:$G$6,stability!$J$6:$K$6)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.47</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.15</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.61</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.68</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.26</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>4.33</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-122B-434A-8435-A5C04B7D4C23}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="279299688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279301984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279301984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279299688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Max Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'max time'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2099126468168255E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-E1F2-404F-AB1B-EE19A1BFFCD8}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'max time'!$B$8:$P$8</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>('max time'!$B$8:$D$8,'max time'!$H$8:$J$8,'max time'!$N$8:$P$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.53468857477974974</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5419620768217608</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.7661324140140682</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.85900787423631908</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0289999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.4177547817867842</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.2336</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>22.179487941188668</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'max time'!$B$8:$P$8</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>('max time'!$B$8:$D$8,'max time'!$H$8:$J$8,'max time'!$N$8:$P$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.53468857477974974</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2.5419620768217608</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>7.7661324140140682</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.85900787423631908</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.0289999999999999</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>4.4177547817867842</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>4.2336</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>22.179487941188668</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'max time'!$B$1:$P$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'max time'!$B$1:$P$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1,5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1,5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1,5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BENCHMARK</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LEUVEN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'max time'!$B$3:$P$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('max time'!$B$3:$D$3,'max time'!$H$3:$J$3,'max time'!$N$3:$P$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>8.18</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.53</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.94</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26.51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>45.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>79.98</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>184.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>289.55</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E1F2-404F-AB1B-EE19A1BFFCD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'max time'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'max time'!$B$9:$P$9</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>('max time'!$B$9:$D$9,'max time'!$H$9:$J$9,'max time'!$N$9:$P$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.40320777770276212</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.31555391298477031</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.35061545887196705</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.341104130185274</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.51939999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.3761656760724705</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.9506</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.65633178601476649</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'max time'!$B$9:$P$9</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>('max time'!$B$9:$D$9,'max time'!$H$9:$J$9,'max time'!$N$9:$P$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="9"/>
+                  <c:pt idx="0">
+                    <c:v>0.40320777770276212</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.31555391298477031</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.35061545887196705</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1.341104130185274</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.51939999999999997</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.3761656760724705</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.9506</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.65633178601476649</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'max time'!$B$1:$P$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'max time'!$B$1:$P$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="9"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1,5</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1,5</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1,5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BENCHMARK</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>LEUVEN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'max time'!$B$5:$P$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('max time'!$B$5:$D$5,'max time'!$H$5:$J$5,'max time'!$N$5:$P$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>45.32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>45.6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107.44</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>96.4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96.47</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E1F2-404F-AB1B-EE19A1BFFCD8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="25"/>
+        <c:axId val="279299688"/>
+        <c:axId val="279301984"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'max time'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>time std</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inBase"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numLit>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numLit>
+                  </c:plus>
+                  <c:minus>
+                    <c:numLit>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numLit>
+                  </c:minus>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'max time'!$B$1:$P$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'max time'!$B$1:$P$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="9"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1,5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1,5</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1,5</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>BENCHMARK</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>SF</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>LEUVEN</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'max time'!$B$4:$P$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('max time'!$B$4:$D$4,'max time'!$H$4:$J$4,'max time'!$N$4:$P$4)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.61</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.9</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>8.86</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.98</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.05</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5.04</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.32</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>19.600000000000001</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-E1F2-404F-AB1B-EE19A1BFFCD8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'max time'!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>score std</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inBase"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'max time'!$B$1:$P$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'max time'!$B$1:$P$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="9"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>1,5</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1,5</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>1</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1,5</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>2</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>BENCHMARK</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>SF</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>LEUVEN</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'max time'!$B$6:$P$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('max time'!$B$6:$D$6,'max time'!$H$6:$J$6,'max time'!$N$6:$P$6)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.46</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.4</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.53</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.53</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.57</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.97</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-E1F2-404F-AB1B-EE19A1BFFCD8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="279299688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279301984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279301984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -12055,25 +14651,31 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>cutting!$B$4:$K$4</c15:sqref>
+                      <c15:sqref>cutting!$B$8:$K$8</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(cutting!$B$4:$C$4,cutting!$F$4:$G$4,cutting!$J$4:$K$4)</c:f>
+                <c:f>(cutting!$B$8:$C$8,cutting!$F$8:$G$8,cutting!$J$8:$K$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.37</c:v>
+                    <c:v>0.67493475832853655</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.64</c:v>
+                    <c:v>0.59604628008234395</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1800000000000002</c:v>
+                    <c:v>0.99048867131330676</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.19</c:v>
+                    <c:v>4.7333086947715541</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2073855064636039</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>14.744833054780015</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -12083,25 +14685,31 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>cutting!$B$4:$K$4</c15:sqref>
+                      <c15:sqref>cutting!$B$8:$K$8</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(cutting!$B$4:$C$4,cutting!$F$4:$G$4,cutting!$J$4:$K$4)</c:f>
+                <c:f>(cutting!$B$8:$C$8,cutting!$F$8:$G$8,cutting!$J$8:$K$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>2.37</c:v>
+                    <c:v>0.67493475832853655</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>1.64</c:v>
+                    <c:v>0.59604628008234395</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>2.1800000000000002</c:v>
+                    <c:v>0.99048867131330676</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>2.19</c:v>
+                    <c:v>4.7333086947715541</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4.2073855064636039</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>14.744833054780015</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -12180,16 +14788,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>17.5</c:v>
+                  <c:v>7.01</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19.86</c:v>
+                  <c:v>8.42</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>18.670000000000002</c:v>
+                  <c:v>23.19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>26.94</c:v>
+                  <c:v>32.15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>41.49</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>97.34</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12291,25 +14905,31 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>cutting!$B$6:$K$6</c15:sqref>
+                      <c15:sqref>cutting!$B$9:$K$9</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(cutting!$B$6:$C$6,cutting!$F$6:$G$6,cutting!$J$6:$K$6)</c:f>
+                <c:f>(cutting!$B$9:$C$9,cutting!$F$9:$G$9,cutting!$J$9:$K$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.23</c:v>
+                    <c:v>0.59604628008234395</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.48</c:v>
+                    <c:v>0.62234243949774137</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.65</c:v>
+                    <c:v>1.7004849755290399</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7</c:v>
+                    <c:v>0.57851550713874555</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2446848789954827</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2447671803728333</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -12319,25 +14939,31 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>cutting!$B$6:$K$6</c15:sqref>
+                      <c15:sqref>cutting!$B$9:$K$9</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(cutting!$B$6:$C$6,cutting!$F$6:$G$6,cutting!$J$6:$K$6)</c:f>
+                <c:f>(cutting!$B$9:$C$9,cutting!$F$9:$G$9,cutting!$J$9:$K$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0.23</c:v>
+                    <c:v>0.59604628008234395</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.48</c:v>
+                    <c:v>0.62234243949774137</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.65</c:v>
+                    <c:v>1.7004849755290399</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.7</c:v>
+                    <c:v>0.57851550713874555</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.2446848789954827</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.2447671803728333</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -12416,16 +15042,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>43.72</c:v>
+                  <c:v>51.76</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>45.16</c:v>
+                  <c:v>53</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>104.16</c:v>
+                  <c:v>105.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>106.88</c:v>
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>99.67</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12639,16 +15271,22 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>2.37</c:v>
+                        <c:v>0.77</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>1.64</c:v>
+                        <c:v>0.68</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.1800000000000002</c:v>
+                        <c:v>1.1299999999999999</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2.19</c:v>
+                        <c:v>5.4</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4.8</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>13.03</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -12813,16 +15451,22 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
                       <c:pt idx="0">
-                        <c:v>0.23</c:v>
+                        <c:v>0.68</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>0.48</c:v>
+                        <c:v>0.71</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>0.65</c:v>
+                        <c:v>1.94</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>1.7</c:v>
+                        <c:v>0.66</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.42</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.1000000000000001</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -13209,31 +15853,40 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>'time step'!$B$4:$P$4</c15:sqref>
+                      <c15:sqref>'time step'!$B$8:$P$8</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>('time step'!$B$4:$D$4,'time step'!$H$4:$J$4,'time step'!$N$4:$P$4)</c:f>
+                <c:f>('time step'!$B$8:$D$8,'time step'!$H$8:$J$8,'time step'!$N$8:$P$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0.13</c:v>
+                    <c:v>0.11395002413338928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.37</c:v>
+                    <c:v>2.953935240996322</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>31.9</c:v>
+                    <c:v>27.961582845039366</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.31</c:v>
+                    <c:v>0.30380000000000001</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.17</c:v>
+                    <c:v>1.0255502172005033</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>43.84</c:v>
+                    <c:v>38.427454292367585</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -13243,31 +15896,40 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>'time step'!$B$4:$P$4</c15:sqref>
+                      <c15:sqref>'time step'!$B$8:$P$8</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>('time step'!$B$4:$D$4,'time step'!$H$4:$J$4,'time step'!$N$4:$P$4)</c:f>
+                <c:f>('time step'!$B$8:$D$8,'time step'!$H$8:$J$8,'time step'!$N$8:$P$8)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0.13</c:v>
+                    <c:v>0.11395002413338928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>3.37</c:v>
+                    <c:v>2.953935240996322</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>31.9</c:v>
+                    <c:v>27.961582845039366</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0.31</c:v>
+                    <c:v>0.30380000000000001</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.17</c:v>
+                    <c:v>1.0255502172005033</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>43.84</c:v>
+                    <c:v>38.427454292367585</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -13472,31 +16134,40 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>'time step'!$B$6:$P$6</c15:sqref>
+                      <c15:sqref>'time step'!$B$9:$P$9</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>('time step'!$B$6:$D$6,'time step'!$H$6:$J$6,'time step'!$N$6:$P$6)</c:f>
+                <c:f>('time step'!$B$9:$D$9,'time step'!$H$9:$J$9,'time step'!$N$9:$P$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>0.87653864717991747</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.36</c:v>
+                    <c:v>0.31555391298477031</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.35</c:v>
+                    <c:v>0.30678852651297112</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.03</c:v>
+                    <c:v>1.0094000000000001</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.41</c:v>
+                    <c:v>1.2359194925236836</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.6</c:v>
+                    <c:v>0.52592318830795048</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -13506,31 +16177,40 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>'time step'!$B$6:$P$6</c15:sqref>
+                      <c15:sqref>'time step'!$B$9:$P$9</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>('time step'!$B$6:$D$6,'time step'!$H$6:$J$6,'time step'!$N$6:$P$6)</c:f>
+                <c:f>('time step'!$B$9:$D$9,'time step'!$H$9:$J$9,'time step'!$N$9:$P$9)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>1</c:v>
+                    <c:v>0.87653864717991747</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.36</c:v>
+                    <c:v>0.31555391298477031</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.35</c:v>
+                    <c:v>0.30678852651297112</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>1.03</c:v>
+                    <c:v>1.0094000000000001</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>1.41</c:v>
+                    <c:v>1.2359194925236836</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0.6</c:v>
+                    <c:v>0.52592318830795048</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -14459,6 +17139,86 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17516,6 +20276,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -17875,13 +21641,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>342901</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>36</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17917,14 +21683,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>133351</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>561976</xdr:colOff>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -17933,6 +21699,92 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5F98FDB-F29D-4610-83AE-6852F7C3B58F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104776</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FBB8661F-1557-4AE3-8331-8269F5A361D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>57151</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A51BFE11-5657-4469-92D4-029DF3D4287C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18781,10 +22633,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N6" sqref="N6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18808,7 +22660,7 @@
         <v>1.5</v>
       </c>
       <c r="D2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -18817,7 +22669,7 @@
         <v>1.5</v>
       </c>
       <c r="J2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="N2">
         <v>1</v>
@@ -18826,7 +22678,7 @@
         <v>1.5</v>
       </c>
       <c r="P2">
-        <v>2.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -18834,47 +22686,618 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>7.48</v>
+        <v>8.18</v>
       </c>
       <c r="C3">
-        <v>19.32</v>
+        <v>21.53</v>
+      </c>
+      <c r="D3">
+        <v>47.3</v>
       </c>
       <c r="H3">
-        <v>9.02</v>
+        <v>9.94</v>
       </c>
       <c r="I3">
-        <v>28.76</v>
+        <v>26.51</v>
+      </c>
+      <c r="J3">
+        <v>45.4</v>
+      </c>
+      <c r="N3">
+        <v>79.98</v>
+      </c>
+      <c r="O3">
+        <v>184.69</v>
+      </c>
+      <c r="P3">
+        <v>289.55</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>27</v>
       </c>
+      <c r="B4">
+        <v>0.61</v>
+      </c>
+      <c r="C4">
+        <v>2.9</v>
+      </c>
+      <c r="D4">
+        <v>8.86</v>
+      </c>
+      <c r="H4">
+        <v>0.98</v>
+      </c>
+      <c r="I4">
+        <v>1.05</v>
+      </c>
+      <c r="J4">
+        <v>5.04</v>
+      </c>
+      <c r="N4">
+        <v>4.32</v>
+      </c>
+      <c r="O4">
+        <v>19.600000000000001</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
       <c r="B5">
-        <v>44.6</v>
+        <v>45.32</v>
       </c>
       <c r="C5">
-        <v>44.4</v>
+        <v>44.96</v>
+      </c>
+      <c r="D5">
+        <v>45.6</v>
       </c>
       <c r="H5">
-        <v>104</v>
+        <v>105.32</v>
       </c>
       <c r="I5">
-        <v>108.6</v>
+        <v>107.35</v>
+      </c>
+      <c r="J5">
+        <v>107.44</v>
+      </c>
+      <c r="N5">
+        <v>96.4</v>
+      </c>
+      <c r="O5">
+        <v>96.47</v>
+      </c>
+      <c r="P5">
+        <v>98.8</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
+      <c r="B6">
+        <v>0.46</v>
+      </c>
+      <c r="C6">
+        <v>0.36</v>
+      </c>
+      <c r="D6">
+        <v>0.4</v>
+      </c>
+      <c r="H6">
+        <v>1.53</v>
+      </c>
+      <c r="I6">
+        <v>0.53</v>
+      </c>
+      <c r="J6">
+        <v>1.57</v>
+      </c>
+      <c r="N6">
+        <v>0.97</v>
+      </c>
+      <c r="O6">
+        <v>0.57999999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <v>3</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>1.96*B4/SQRT(B7)</f>
+        <v>0.53468857477974974</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:P8" si="0">1.96*C4/SQRT(C7)</f>
+        <v>2.5419620768217608</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>7.7661324140140682</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.85900787423631908</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.0289999999999999</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>4.4177547817867842</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>4.2336</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>22.179487941188668</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f>1.96*B6/SQRT(B7)</f>
+        <v>0.40320777770276212</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
+        <v>0.31555391298477031</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.35061545887196705</v>
+      </c>
+      <c r="H9">
+        <f>1.96*H6/SQRT(H7)</f>
+        <v>1.341104130185274</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:J9" si="2">1.96*I6/SQRT(I7)</f>
+        <v>0.51939999999999997</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1.3761656760724705</v>
+      </c>
+      <c r="N9">
+        <f>1.96*N6/SQRT(N7)</f>
+        <v>0.9506</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:P9" si="3">1.96*O6/SQRT(O7)</f>
+        <v>0.65633178601476649</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>7.96</v>
+      </c>
+      <c r="C3">
+        <v>8.66</v>
+      </c>
+      <c r="D3">
+        <v>8.0500000000000007</v>
+      </c>
+      <c r="E3">
+        <v>37.4</v>
+      </c>
+      <c r="G3">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="H3">
+        <v>28.11</v>
+      </c>
+      <c r="I3">
+        <v>24.99</v>
+      </c>
+      <c r="J3">
+        <v>62.97</v>
+      </c>
+      <c r="L3">
+        <v>71.28</v>
+      </c>
+      <c r="M3">
+        <v>106.59</v>
+      </c>
+      <c r="N3">
+        <v>77.849999999999994</v>
+      </c>
+      <c r="O3">
+        <v>309.64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>0.8</v>
+      </c>
+      <c r="C4">
+        <v>0.4</v>
+      </c>
+      <c r="D4">
+        <v>0.65</v>
+      </c>
+      <c r="E4">
+        <v>4.99</v>
+      </c>
+      <c r="G4">
+        <v>1.01</v>
+      </c>
+      <c r="H4">
+        <v>1.35</v>
+      </c>
+      <c r="I4">
+        <v>2.6</v>
+      </c>
+      <c r="J4">
+        <v>4.08</v>
+      </c>
+      <c r="L4">
+        <v>10.58</v>
+      </c>
+      <c r="M4">
+        <v>12.8</v>
+      </c>
+      <c r="N4">
+        <v>3.82</v>
+      </c>
+      <c r="O4">
+        <v>42.53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>49.36</v>
+      </c>
+      <c r="C5">
+        <v>52.28</v>
+      </c>
+      <c r="D5">
+        <v>52.64</v>
+      </c>
+      <c r="E5">
+        <v>44.44</v>
+      </c>
+      <c r="G5">
+        <v>111.56</v>
+      </c>
+      <c r="H5">
+        <v>107.95</v>
+      </c>
+      <c r="I5">
+        <v>111.44</v>
+      </c>
+      <c r="J5">
+        <v>101.16</v>
+      </c>
+      <c r="L5">
+        <v>102.9</v>
+      </c>
+      <c r="M5">
+        <v>99.15</v>
+      </c>
+      <c r="N5">
+        <v>103.08</v>
+      </c>
+      <c r="O5">
+        <v>93.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>1.07</v>
+      </c>
+      <c r="C6">
+        <v>1.28</v>
+      </c>
+      <c r="D6">
+        <v>0.77</v>
+      </c>
+      <c r="E6">
+        <v>0.17</v>
+      </c>
+      <c r="G6">
+        <v>1.5</v>
+      </c>
+      <c r="H6">
+        <v>0.66</v>
+      </c>
+      <c r="I6">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="J6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>1.57</v>
+      </c>
+      <c r="M6">
+        <v>0.75</v>
+      </c>
+      <c r="N6">
+        <v>0.41</v>
+      </c>
+      <c r="O6">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>4</v>
+      </c>
+      <c r="M7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>1.96*B4/SQRT(B7)</f>
+        <v>0.70123091774393409</v>
+      </c>
+      <c r="C8" t="e">
+        <f>1.96*#REF!/SQRT(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="C8:P8" si="0">1.96*D4/SQRT(D7)</f>
+        <v>0.56975012066694641</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="0"/>
+        <v>4.3739278494277887</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0.88530403365171673</v>
+      </c>
+      <c r="H8">
+        <f>1.96*C4/SQRT(C7)</f>
+        <v>0.35061545887196705</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2.2790004826677857</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>3.5762776804940635</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ref="L8" si="1">1.96*L4/SQRT(L7)</f>
+        <v>10.368399999999999</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ref="M8" si="2">1.96*M4/SQRT(M7)</f>
+        <v>12.544</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>3.3483776322272849</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>41.679400000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f>1.96*B6/SQRT(B7)</f>
+        <v>0.93789635248251169</v>
+      </c>
+      <c r="C9" t="e">
+        <f>1.96*#REF!/SQRT(#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="C9:D9" si="3">1.96*D6/SQRT(D7)</f>
+        <v>0.67493475832853655</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9" si="4">1.96*E6/SQRT(E7)</f>
+        <v>0.14901157002058599</v>
+      </c>
+      <c r="G9">
+        <f>1.96*G6/SQRT(G7)</f>
+        <v>1.3148079707698763</v>
+      </c>
+      <c r="H9">
+        <f>1.96*C6/SQRT(C7)</f>
+        <v>1.1219694683902943</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:J9" si="5">1.96*I6/SQRT(I7)</f>
+        <v>0.97295789836970858</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="5"/>
+        <v>0.48209625594895467</v>
+      </c>
+      <c r="L9">
+        <f>1.96*L6/SQRT(L7)</f>
+        <v>1.5386</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9" si="6">1.96*M6/SQRT(M7)</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="N9">
+        <f>1.96*N6/SQRT(N7)</f>
+        <v>0.35938084534376619</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:P9" si="7">1.96*O6/SQRT(O7)</f>
+        <v>2.4206000000000003</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -18882,8 +23305,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="T14" sqref="T14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19240,10 +23663,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19284,16 +23707,22 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>17.5</v>
+        <v>7.01</v>
       </c>
       <c r="C3">
-        <v>19.86</v>
+        <v>8.42</v>
       </c>
       <c r="F3">
-        <v>18.670000000000002</v>
+        <v>23.19</v>
       </c>
       <c r="G3">
-        <v>26.94</v>
+        <v>32.15</v>
+      </c>
+      <c r="J3">
+        <v>41.49</v>
+      </c>
+      <c r="K3">
+        <v>97.34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
@@ -19301,16 +23730,22 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>2.37</v>
+        <v>0.77</v>
       </c>
       <c r="C4">
-        <v>1.64</v>
+        <v>0.68</v>
       </c>
       <c r="F4">
-        <v>2.1800000000000002</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="G4">
-        <v>2.19</v>
+        <v>5.4</v>
+      </c>
+      <c r="J4">
+        <v>4.8</v>
+      </c>
+      <c r="K4">
+        <v>13.03</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -19318,16 +23753,22 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>43.72</v>
+        <v>51.76</v>
       </c>
       <c r="C5">
-        <v>45.16</v>
+        <v>53</v>
       </c>
       <c r="F5">
-        <v>104.16</v>
+        <v>105.92</v>
       </c>
       <c r="G5">
-        <v>106.88</v>
+        <v>108</v>
+      </c>
+      <c r="J5">
+        <v>98.4</v>
+      </c>
+      <c r="K5">
+        <v>99.67</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -19335,16 +23776,103 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.23</v>
+        <v>0.68</v>
       </c>
       <c r="C6">
-        <v>0.48</v>
+        <v>0.71</v>
       </c>
       <c r="F6">
-        <v>0.65</v>
+        <v>1.94</v>
       </c>
       <c r="G6">
-        <v>1.7</v>
+        <v>0.66</v>
+      </c>
+      <c r="J6">
+        <v>1.42</v>
+      </c>
+      <c r="K6">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>1.96*B4/SQRT(B7)</f>
+        <v>0.67493475832853655</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:P8" si="0">1.96*C4/SQRT(C7)</f>
+        <v>0.59604628008234395</v>
+      </c>
+      <c r="F8">
+        <f>1.96*F4/SQRT(F7)</f>
+        <v>0.99048867131330676</v>
+      </c>
+      <c r="G8">
+        <f>1.96*G4/SQRT(G7)</f>
+        <v>4.7333086947715541</v>
+      </c>
+      <c r="J8">
+        <f>1.96*J4/SQRT(J7)</f>
+        <v>4.2073855064636039</v>
+      </c>
+      <c r="K8">
+        <f>1.96*K4/SQRT(K7)</f>
+        <v>14.744833054780015</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f>1.96*B6/SQRT(B7)</f>
+        <v>0.59604628008234395</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
+        <v>0.62234243949774137</v>
+      </c>
+      <c r="F9">
+        <f>1.96*F6/SQRT(F7)</f>
+        <v>1.7004849755290399</v>
+      </c>
+      <c r="G9">
+        <f>1.96*G6/SQRT(G7)</f>
+        <v>0.57851550713874555</v>
+      </c>
+      <c r="J9">
+        <f>1.96*J6/SQRT(J7)</f>
+        <v>1.2446848789954827</v>
+      </c>
+      <c r="K9">
+        <f>1.96*K6/SQRT(K7)</f>
+        <v>1.2447671803728333</v>
       </c>
     </row>
   </sheetData>
@@ -19355,10 +23883,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P10"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U27" sqref="U27"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19495,48 +24023,109 @@
         <v>0.6</v>
       </c>
     </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>1.96*B4/SQRT(B7)</f>
+        <v>0.11395002413338928</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:P8" si="0">1.96*C4/SQRT(C7)</f>
+        <v>2.953935240996322</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>27.961582845039366</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>0.30380000000000001</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>1.0255502172005033</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>38.427454292367585</v>
+      </c>
+      <c r="N8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P8" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f>1.96*B6/SQRT(B7)</f>
+        <v>0.87653864717991747</v>
+      </c>
       <c r="C9">
-        <f>C3/B3</f>
-        <v>14.4421768707483</v>
+        <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
+        <v>0.31555391298477031</v>
       </c>
       <c r="D9">
-        <f>D3/C3</f>
-        <v>13.307583608101742</v>
+        <f t="shared" si="1"/>
+        <v>0.30678852651297112</v>
+      </c>
+      <c r="H9">
+        <f>1.96*H6/SQRT(H7)</f>
+        <v>1.0094000000000001</v>
       </c>
       <c r="I9">
-        <f>I3/H3</f>
-        <v>6.9843342036553526</v>
+        <f t="shared" ref="I9:J9" si="2">1.96*I6/SQRT(I7)</f>
+        <v>1.2359194925236836</v>
       </c>
       <c r="J9">
-        <f>J3/I3</f>
-        <v>6.504299065420561</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <f>B4/B3</f>
-        <v>8.8435374149659865E-2</v>
-      </c>
-      <c r="C10">
-        <f t="shared" ref="C10:D10" si="0">C4/C3</f>
-        <v>0.15873763542157324</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="0"/>
-        <v>0.11291236018688942</v>
-      </c>
-      <c r="H10">
-        <f>H4/H3</f>
-        <v>8.0939947780678853E-2</v>
-      </c>
-      <c r="I10">
-        <f t="shared" ref="I10:J10" si="1">I4/I3</f>
-        <v>4.3738317757009343E-2</v>
-      </c>
-      <c r="J10">
-        <f t="shared" si="1"/>
-        <v>0.25196850393700787</v>
+        <f t="shared" si="2"/>
+        <v>0.52592318830795048</v>
+      </c>
+      <c r="N9" t="e">
+        <f>1.96*N6/SQRT(N7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O9" t="e">
+        <f t="shared" ref="O9:P9" si="3">1.96*O6/SQRT(O7)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="P9" t="e">
+        <f t="shared" si="3"/>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
@@ -19547,10 +24136,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19600,28 +24189,37 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>15.35</v>
+        <v>7.07</v>
       </c>
       <c r="C3">
-        <v>23.74</v>
+        <v>9.69</v>
       </c>
       <c r="D3">
-        <v>34.200000000000003</v>
+        <v>13.84</v>
       </c>
       <c r="G3" t="s">
         <v>25</v>
       </c>
       <c r="H3">
-        <v>24.94</v>
+        <v>24.69</v>
       </c>
       <c r="I3">
-        <v>27.53</v>
+        <v>30.21</v>
       </c>
       <c r="J3">
-        <v>34.14</v>
+        <v>43.61</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
+      </c>
+      <c r="N3">
+        <v>119.79</v>
+      </c>
+      <c r="O3">
+        <v>116.28</v>
+      </c>
+      <c r="P3">
+        <v>146.04</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
@@ -19629,28 +24227,37 @@
         <v>27</v>
       </c>
       <c r="B4">
-        <v>3.14</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>3.1</v>
+        <v>2.16</v>
       </c>
       <c r="D4">
-        <v>6.25</v>
+        <v>2.39</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
       </c>
       <c r="H4">
-        <v>1.66</v>
+        <v>1.29</v>
       </c>
       <c r="I4">
-        <v>2.3199999999999998</v>
+        <v>2.29</v>
       </c>
       <c r="J4">
-        <v>1.65</v>
+        <v>2.99</v>
       </c>
       <c r="M4" t="s">
         <v>27</v>
+      </c>
+      <c r="N4">
+        <v>32.119999999999997</v>
+      </c>
+      <c r="O4">
+        <v>28.7</v>
+      </c>
+      <c r="P4">
+        <v>25.98</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -19658,28 +24265,37 @@
         <v>26</v>
       </c>
       <c r="B5">
-        <v>44.68</v>
+        <v>53.44</v>
       </c>
       <c r="C5">
-        <v>45.28</v>
+        <v>52.36</v>
       </c>
       <c r="D5">
-        <v>45.12</v>
+        <v>52.24</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
       </c>
       <c r="H5">
-        <v>106.88</v>
+        <v>108.84</v>
       </c>
       <c r="I5">
-        <v>106.32</v>
+        <v>107.32</v>
       </c>
       <c r="J5">
-        <v>106.96</v>
+        <v>107.64</v>
       </c>
       <c r="M5" t="s">
         <v>26</v>
+      </c>
+      <c r="N5">
+        <v>100.12</v>
+      </c>
+      <c r="O5">
+        <v>98.92</v>
+      </c>
+      <c r="P5">
+        <v>99.76</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
@@ -19687,22 +24303,145 @@
         <v>28</v>
       </c>
       <c r="B6">
-        <v>0.41</v>
+        <v>1.18</v>
       </c>
       <c r="C6">
-        <v>0.57999999999999996</v>
+        <v>0.61</v>
       </c>
       <c r="D6">
-        <v>0.44</v>
+        <v>0.84</v>
       </c>
       <c r="H6">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="I6">
-        <v>1.1100000000000001</v>
+        <v>1.76</v>
       </c>
       <c r="J6">
-        <v>1.51</v>
+        <v>2.08</v>
+      </c>
+      <c r="N6">
+        <v>0.54</v>
+      </c>
+      <c r="O6">
+        <v>0.83</v>
+      </c>
+      <c r="P6">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>1.96*B4/SQRT(B7)</f>
+        <v>0.65740398538493816</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:P8" si="0">1.96*C4/SQRT(C7)</f>
+        <v>1.8933234779086219</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>2.094927366760003</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="0"/>
+        <v>1.1307348548620937</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="0"/>
+        <v>2.0072735020420112</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>2.6208505550679537</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>28.154421347418946</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>25.156659174063631</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="0"/>
+        <v>22.772474053734257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f>1.96*B6/SQRT(B7)</f>
+        <v>1.0343156036723025</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
+        <v>0.53468857477974974</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.73629246363113066</v>
+      </c>
+      <c r="H9">
+        <f>1.96*H6/SQRT(H7)</f>
+        <v>1.0693771495594995</v>
+      </c>
+      <c r="I9">
+        <f t="shared" ref="I9:J9" si="2">1.96*I6/SQRT(I7)</f>
+        <v>1.5427080190366547</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>1.8232003861342285</v>
+      </c>
+      <c r="N9">
+        <f>1.96*N6/SQRT(N7)</f>
+        <v>0.47333086947715547</v>
+      </c>
+      <c r="O9">
+        <f t="shared" ref="O9:P9" si="3">1.96*O6/SQRT(O7)</f>
+        <v>0.7275270771593314</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="3"/>
+        <v>1.2709810384108804</v>
       </c>
     </row>
   </sheetData>
@@ -19713,10 +24452,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="U6" sqref="U6"/>
+      <selection activeCell="A7" sqref="A7:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19842,6 +24581,87 @@
       </c>
       <c r="K6">
         <v>0.64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>3</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>1.96*B4/SQRT(B7)</f>
+        <v>0.19283850237958183</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8" si="0">1.96*C4/SQRT(C7)</f>
+        <v>0.14901157002058599</v>
+      </c>
+      <c r="F8">
+        <f>1.96*F4/SQRT(F7)</f>
+        <v>4.9612087430383331</v>
+      </c>
+      <c r="G8">
+        <f>1.96*G4/SQRT(G7)</f>
+        <v>0.21913466179497937</v>
+      </c>
+      <c r="J8">
+        <f>1.96*J4/SQRT(J7)</f>
+        <v>0.11316065276116666</v>
+      </c>
+      <c r="K8">
+        <f>1.96*K4/SQRT(K7)</f>
+        <v>1.8232003861342285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f>1.96*B6/SQRT(B7)</f>
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
+        <v>0.24543082121037693</v>
+      </c>
+      <c r="F9">
+        <f>1.96*F6/SQRT(F7)</f>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f>1.96*G6/SQRT(G7)</f>
+        <v>0.69246553127213484</v>
+      </c>
+      <c r="J9">
+        <f>1.96*J6/SQRT(J7)</f>
+        <v>0.98449767902214991</v>
+      </c>
+      <c r="K9">
+        <f>1.96*K6/SQRT(K7)</f>
+        <v>0.56098473419514716</v>
       </c>
     </row>
   </sheetData>
@@ -19925,20 +24745,220 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>53</v>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="C3">
+        <v>50.49</v>
+      </c>
+      <c r="F3">
+        <v>26.83</v>
+      </c>
+      <c r="G3">
+        <v>59.32</v>
+      </c>
+      <c r="J3">
+        <v>195.58</v>
+      </c>
+      <c r="K3">
+        <v>477.02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>2.98</v>
+      </c>
+      <c r="C4">
+        <v>6.59</v>
+      </c>
+      <c r="F4">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="G4">
+        <v>8.35</v>
+      </c>
+      <c r="J4">
+        <v>47.55</v>
+      </c>
+      <c r="K4">
+        <v>69.02</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5">
+        <v>45.03</v>
+      </c>
+      <c r="C5">
+        <v>43.38</v>
+      </c>
+      <c r="F5">
+        <v>106.68</v>
+      </c>
+      <c r="G5">
+        <v>100.19</v>
+      </c>
+      <c r="J5">
+        <v>98.07</v>
+      </c>
+      <c r="K5">
+        <v>93.47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>0.47</v>
+      </c>
+      <c r="C6">
+        <v>0.15</v>
+      </c>
+      <c r="F6">
+        <v>1.61</v>
+      </c>
+      <c r="G6">
+        <v>0.68</v>
+      </c>
+      <c r="J6">
+        <v>1.26</v>
+      </c>
+      <c r="K6">
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <v>50</v>
+      </c>
+      <c r="F7">
+        <v>48</v>
+      </c>
+      <c r="G7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>44</v>
+      </c>
+      <c r="K7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B8">
+        <f>1.96*B4/SQRT(B7)</f>
+        <v>0.8260138575108773</v>
+      </c>
+      <c r="C8">
+        <f t="shared" ref="C8:K8" si="0">1.96*C4/SQRT(C7)</f>
+        <v>1.8266548057035843</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.64501572073864988</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2.3145019161798071</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>14.050127145979205</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="0"/>
+        <v>24.698489800417622</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9">
+        <f>1.96*B6/SQRT(B7)</f>
+        <v>0.13027735336580951</v>
+      </c>
+      <c r="C9">
+        <f t="shared" ref="C9:K9" si="1">1.96*C6/SQRT(C7)</f>
+        <v>4.1577878733768989E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0.45547162736369584</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.18848638359308609</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.37230620828462252</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="1"/>
+        <v>1.5494706003449481</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="682" firstSheet="2" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="682" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="old" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="63">
   <si>
     <t>benchmark full</t>
   </si>
@@ -214,6 +214,15 @@
   </si>
   <si>
     <t>score CI</t>
+  </si>
+  <si>
+    <t>Horizontal</t>
+  </si>
+  <si>
+    <t>Diagonal</t>
+  </si>
+  <si>
+    <t>Up/Down</t>
   </si>
 </sst>
 </file>
@@ -3597,6 +3606,1082 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="nl-BE"/>
+              <a:t>MILP Performance </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convexity!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>convexity!$B$8:$K$8</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(convexity!$B$8,convexity!$F$8,convexity!$J$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.19283850237958183</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.9612087430383331</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11316065276116666</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>convexity!$B$8:$K$8</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(convexity!$B$8,convexity!$F$8,convexity!$J$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0.19283850237958183</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.9612087430383331</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.11316065276116666</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>convexity!$B$11:$K$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(convexity!$B$11,convexity!$F$11,convexity!$J$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Horizontal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diagonal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Up/Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>convexity!$B$3:$K$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(convexity!$B$3,convexity!$F$3,convexity!$J$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.420000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4E31-44A1-84FF-FDF144F62E9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>convexity!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>convexity!$B$9:$K$9</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(convexity!$B$9,convexity!$F$9,convexity!$J$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.98449767902214991</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>convexity!$B$9:$K$9</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>(convexity!$B$9,convexity!$F$9,convexity!$J$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="3"/>
+                  <c:pt idx="0">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.98449767902214991</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:strRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>convexity!$B$11:$K$11</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(convexity!$B$11,convexity!$F$11,convexity!$J$11)</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Horizontal</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Diagonal</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Up/Down</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>convexity!$B$5:$K$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>(convexity!$B$5,convexity!$F$5,convexity!$J$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26.6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27.6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4E31-44A1-84FF-FDF144F62E9D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="50"/>
+        <c:axId val="279299688"/>
+        <c:axId val="279301984"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>convexity!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>time std</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inBase"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numLit>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numLit>
+                  </c:plus>
+                  <c:minus>
+                    <c:numLit>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numLit>
+                  </c:minus>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>convexity!$B$11:$K$11</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(convexity!$B$11,convexity!$F$11,convexity!$J$11)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Horizontal</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Diagonal</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Up/Down</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>convexity!$B$4:$K$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(convexity!$B$4,convexity!$F$4,convexity!$J$4)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0.22</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>5.66</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.1</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000002-4E31-44A1-84FF-FDF144F62E9D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>convexity!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>score std</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inBase"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>convexity!$B$11:$K$11</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(convexity!$B$11,convexity!$F$11,convexity!$J$11)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>Horizontal</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>Diagonal</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>Up/Down</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>convexity!$B$6:$K$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>(convexity!$B$6,convexity!$F$6,convexity!$J$6)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="3"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.87</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-4E31-44A1-84FF-FDF144F62E9D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="279299688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279301984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279301984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-BE"/>
+                  <a:t>time (s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-BE"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279299688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
               <a:t>Stability</a:t>
             </a:r>
           </a:p>
@@ -4382,7 +5467,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>stability!$A$6</c15:sqref>
@@ -4742,7 +5827,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -17258,6 +18343,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -20780,6 +21905,509 @@
 </file>
 
 <file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -21718,6 +23346,44 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>314326</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>76201</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6404FB35-4A5D-4224-9E9D-8C56F4520FA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -23202,7 +24868,7 @@
         <v>#REF!</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="C8:P8" si="0">1.96*D4/SQRT(D7)</f>
+        <f t="shared" ref="D8:O8" si="0">1.96*D4/SQRT(D7)</f>
         <v>0.56975012066694641</v>
       </c>
       <c r="E8">
@@ -23255,7 +24921,7 @@
         <v>#REF!</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="C9:D9" si="3">1.96*D6/SQRT(D7)</f>
+        <f t="shared" ref="D9" si="3">1.96*D6/SQRT(D7)</f>
         <v>0.67493475832853655</v>
       </c>
       <c r="E9">
@@ -23291,7 +24957,7 @@
         <v>0.35938084534376619</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:P9" si="7">1.96*O6/SQRT(O7)</f>
+        <f t="shared" ref="O9" si="7">1.96*O6/SQRT(O7)</f>
         <v>2.4206000000000003</v>
       </c>
     </row>
@@ -23826,7 +25492,7 @@
         <v>0.67493475832853655</v>
       </c>
       <c r="C8">
-        <f t="shared" ref="C8:P8" si="0">1.96*C4/SQRT(C7)</f>
+        <f t="shared" ref="C8" si="0">1.96*C4/SQRT(C7)</f>
         <v>0.59604628008234395</v>
       </c>
       <c r="F8">
@@ -23855,7 +25521,7 @@
         <v>0.59604628008234395</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
+        <f t="shared" ref="C9" si="1">1.96*C6/SQRT(C7)</f>
         <v>0.62234243949774137</v>
       </c>
       <c r="F9">
@@ -24138,7 +25804,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
@@ -24452,10 +26118,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:K9"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q45" sqref="Q45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24644,7 +26310,7 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
+        <f t="shared" ref="C9" si="1">1.96*C6/SQRT(C7)</f>
         <v>0.24543082121037693</v>
       </c>
       <c r="F9">
@@ -24662,6 +26328,17 @@
       <c r="K9">
         <f>1.96*K6/SQRT(K7)</f>
         <v>0.56098473419514716</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" t="s">
+        <v>61</v>
+      </c>
+      <c r="J11" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="70">
   <si>
     <t>BENCHMARK</t>
   </si>
@@ -178,12 +178,78 @@
   <si>
     <t>Up/Down</t>
   </si>
+  <si>
+    <t>obstacles</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>segments</t>
+  </si>
+  <si>
+    <t>theta*</t>
+  </si>
+  <si>
+    <t>GA</t>
+  </si>
+  <si>
+    <t>MILP</t>
+  </si>
+  <si>
+    <t>bench small</t>
+  </si>
+  <si>
+    <t>bench large</t>
+  </si>
+  <si>
+    <t>spiral</t>
+  </si>
+  <si>
+    <t>sf small 1</t>
+  </si>
+  <si>
+    <t>sf small 2</t>
+  </si>
+  <si>
+    <t>sf large</t>
+  </si>
+  <si>
+    <t>leuven small 1</t>
+  </si>
+  <si>
+    <t>leuven small 2</t>
+  </si>
+  <si>
+    <t>leuven large</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>25m x 20m</t>
+  </si>
+  <si>
+    <t>40m x 20m</t>
+  </si>
+  <si>
+    <t>1km x 1km</t>
+  </si>
+  <si>
+    <t>3km x 3km</t>
+  </si>
+  <si>
+    <t>30m x 30m</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,25 +264,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -228,19 +282,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1618,22 +1669,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>1.5251772460930566</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>4.2775085982379979</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>3.848004661119838</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>2.4010000000000002</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>12.21018335521625</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>16.750653547608223</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1652,22 +1703,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>1.5251772460930566</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>4.2775085982379979</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>3.848004661119838</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>2.4010000000000002</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>12.21018335521625</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>16.750653547608223</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1745,6 +1796,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.95</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>55.9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>125.02</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -1854,22 +1923,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.32431929945656945</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.28049236709757358</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1.0956733089748969</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1.3034000000000001</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.1833271736928885</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>1.4199926084314665</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1888,22 +1957,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.32431929945656945</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.28049236709757358</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>1.0956733089748969</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1.3034000000000001</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.1833271736928885</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>1.4199926084314665</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -1981,6 +2050,24 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>43.2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>105.08</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>106.75</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>98.24</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>98.48</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -2192,6 +2279,24 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>1.74</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.88</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>4.3899999999999997</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.4500000000000002</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>13.93</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>19.11</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2354,6 +2459,24 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="6"/>
+                      <c:pt idx="0">
+                        <c:v>0.37</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.32</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.35</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.62</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -2748,31 +2871,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.11395002413338928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1.7706080673034335</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>59.70981264589598</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>7.8399999999999997E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>2.953935240996322</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>15.630999999999998</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>2.2632130552233332E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>19.941254223343122</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>83.8292</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2791,31 +2914,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.11395002413338928</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1.7706080673034335</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>59.70981264589598</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>7.8399999999999997E-2</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>2.953935240996322</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>15.630999999999998</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>2.2632130552233332E-2</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>19.941254223343122</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>83.8292</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -2902,6 +3025,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>1.53</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>232.94</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.71</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>34.869999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>193.58</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17.489999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>810.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3011,31 +3161,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.6661693718567373</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.15777695649238516</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>6.1357705302594233E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1.0584</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.88530403365171673</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.56839999999999991</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>2.0368917497009997</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.98172328484150773</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>2.7439999999999998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3054,31 +3204,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.6661693718567373</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.15777695649238516</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>6.1357705302594233E-2</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1.0584</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.88530403365171673</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.56839999999999991</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>2.0368917497009997</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.98172328484150773</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>2.7439999999999998</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3165,6 +3315,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>47.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.48</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>117.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>107.16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>102.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>112.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>99.04</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>97.92</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -3385,6 +3562,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.13</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.02</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>68.12</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>3.37</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>15.95</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.02</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>22.75</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>85.54</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3556,6 +3760,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.76</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.18</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.0000000000000007E-2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.08</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.01</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.8</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.1200000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.8</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -3933,31 +4164,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>1.3148079707698763</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1.4375233813750647</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>5.4958973178180823</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>2.6949999999999998</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>5.8114512308028532</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>5.3381203613256973</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>3.9005969799506328</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>7.4969999999999999</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>12.481910335842025</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -3976,31 +4207,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>1.3148079707698763</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>1.4375233813750647</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>5.4958973178180823</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>2.6949999999999998</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>5.8114512308028532</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>5.3381203613256973</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>3.9005969799506328</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>7.4969999999999999</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>12.481910335842025</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4087,6 +4318,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>15.74</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17.690000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>28.77</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.28</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43.8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>140.69</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>150.80000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4196,31 +4454,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.4207385506463604</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.22790004826677857</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.63110782596954063</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1.7542</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.63987321244133977</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.68370014480033559</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.56975012066694641</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.0682</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.83271171482092154</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4239,31 +4497,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.4207385506463604</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.22790004826677857</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.63110782596954063</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>1.7542</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.63987321244133977</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.68370014480033559</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.56975012066694641</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>1.0682</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.83271171482092154</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -4350,6 +4608,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44.64</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>109.65</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.72</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>105.76</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>99.36</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.68</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -4570,6 +4855,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>1.5</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.64</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>6.27</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.75</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>6.63</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>6.09</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>4.45</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7.65</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>14.24</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -4741,6 +5053,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.48</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.72</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.79</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.73</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>0.78</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.65</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.0900000000000001</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.95</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -5113,22 +5452,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.6513867668290475</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>5.05864191260856</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.94079999999999997</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>4.7592811857254249</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>5.1799288801424037</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>23.171463063777388</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5147,22 +5486,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.6513867668290475</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>5.05864191260856</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.94079999999999997</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>4.7592811857254249</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>5.1799288801424037</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>23.171463063777388</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5254,6 +5593,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>124.58</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>419.08</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5364,22 +5706,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>8.3155757467537977E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>4.7121595898271522E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.49279999999999996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.19125824217533735</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.25178245239359581</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.92661059998253847</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5398,22 +5740,22 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="6"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>8.3155757467537977E-2</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>4.7121595898271522E-2</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.49279999999999996</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.19125824217533735</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>0.25178245239359581</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>0.92661059998253847</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -5505,6 +5847,9 @@
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>98.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>92.27</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5731,6 +6076,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>18.309999999999999</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>74.77</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -5908,6 +6256,9 @@
                       </c:pt>
                       <c:pt idx="4">
                         <c:v>0.89</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.99</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -6303,31 +6654,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.25419620768217605</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.92913096601071254</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>6.5302129214903859</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.85024248776451994</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.5690041784520523</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>6.3549051920544013</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.7530772943598349</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>18.503730841968057</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>13.288325891247549</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6346,31 +6697,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.25419620768217605</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.92913096601071254</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>6.5302129214903859</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.85024248776451994</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.5690041784520523</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>6.3549051920544013</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>1.7530772943598349</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>18.503730841968057</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>13.288325891247549</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6457,6 +6808,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>7.02</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19.14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>41.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10.78</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32.32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.709999999999994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>51.37</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>127.32</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>210.74</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6566,31 +6944,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.22790004826677857</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.2103692753231802</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.28925775356937278</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.78888478246192573</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.2359194925236836</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>1.104438695446696</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.64863859891313891</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.78888478246192573</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.50839241536435209</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6609,31 +6987,31 @@
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="9"/>
                   <c:pt idx="0">
-                    <c:v>0</c:v>
+                    <c:v>0.22790004826677857</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0</c:v>
+                    <c:v>0.2103692753231802</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0</c:v>
+                    <c:v>0.28925775356937278</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>0</c:v>
+                    <c:v>0.78888478246192573</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>0</c:v>
+                    <c:v>1.2359194925236836</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>0</c:v>
+                    <c:v>1.104438695446696</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>0</c:v>
+                    <c:v>0.64863859891313891</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>0</c:v>
+                    <c:v>0.78888478246192573</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>0</c:v>
+                    <c:v>0.50839241536435209</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6720,6 +7098,33 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>44.44</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.76</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>105.32</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>106.64</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>97.92</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>98.72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>98.52</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6940,6 +7345,33 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.28999999999999998</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.06</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>7.45</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.97</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.79</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>7.25</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>21.11</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>15.16</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -7111,12 +7543,1457 @@
                     <c:numCache>
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="9"/>
+                      <c:pt idx="0">
+                        <c:v>0.26</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.24</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.41</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.26</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.74</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.9</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000004-E1F2-404F-AB1B-EE19A1BFFCD8}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="279299688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279301984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="279301984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="nl-BE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="279299688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="nl-BE"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="nl-BE"/>
+              <a:t>Max Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="nl-BE"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'approach margin'!$A$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-5.2099126468168255E-3"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:dLblPos val="outEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-21F8-46EC-A19F-20FECF4EA90F}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'approach margin'!$B$8:$O$8</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>('approach margin'!$B$8:$E$8,'approach margin'!$G$8:$J$8,'approach margin'!$L$8:$O$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.86777326070811833</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5762776804940635</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8487506033347318</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0248042749856094</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3936964490160688</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.059865820872806</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.3358825346810139</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.3746737916426826</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.7653864717991752</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.9349125836229355</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>45.737786609848101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>67.887918224084615</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'approach margin'!$B$8:$O$8</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>('approach margin'!$B$8:$E$8,'approach margin'!$G$8:$J$8,'approach margin'!$L$8:$O$8)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.86777326070811833</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>3.5762776804940635</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2.8487506033347318</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>2.0248042749856094</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1.3936964490160688</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2.059865820872806</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>8.3358825346810139</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3.3746737916426826</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>8.7653864717991752</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>4.9349125836229355</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>45.737786609848101</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>67.887918224084615</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'approach margin'!$B$1:$O$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'approach margin'!$B$1:$O$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1,1 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1,1 - 5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1,1 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1,1 - 5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1,1 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1,1 - 5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BENCHMARK</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>LEUVEN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'approach margin'!$B$3:$O$3</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('approach margin'!$B$3:$E$3,'approach margin'!$G$3:$J$3,'approach margin'!$L$3:$O$3)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>6.42</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16.97</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>22.44</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31.45</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>53.06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>124.45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>316.87</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>338.67</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21F8-46EC-A19F-20FECF4EA90F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'approach margin'!$A$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>score</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="nl-BE"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inBase"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:errBars>
+            <c:errBarType val="both"/>
+            <c:errValType val="cust"/>
+            <c:noEndCap val="0"/>
+            <c:plus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'approach margin'!$B$9:$O$9</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>('approach margin'!$B$9:$E$9,'approach margin'!$G$9:$J$9,'approach margin'!$L$9:$O$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.50839241536435209</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.31555391298477031</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.28925775356937278</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.28925775356937278</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.61357705302594223</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0693771495594995</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.86777326070811833</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.48209625594895467</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.71876169068753237</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.26296159415397524</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.60481166655414298</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.8312198303911336</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:plus>
+            <c:minus>
+              <c:numRef>
+                <c:extLst>
+                  <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                    <c15:fullRef>
+                      <c15:sqref>'approach margin'!$B$9:$O$9</c15:sqref>
+                    </c15:fullRef>
+                  </c:ext>
+                </c:extLst>
+                <c:f>('approach margin'!$B$9:$E$9,'approach margin'!$G$9:$J$9,'approach margin'!$L$9:$O$9)</c:f>
+                <c:numCache>
+                  <c:formatCode>General</c:formatCode>
+                  <c:ptCount val="12"/>
+                  <c:pt idx="0">
+                    <c:v>0.50839241536435209</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>0.31555391298477031</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>0.28925775356937278</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>0.28925775356937278</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>0.61357705302594223</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1.0693771495594995</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>0.86777326070811833</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>0.48209625594895467</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>0.71876169068753237</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>0.26296159415397524</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>0.60481166655414298</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>2.8312198303911336</c:v>
+                  </c:pt>
+                </c:numCache>
+              </c:numRef>
+            </c:minus>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:errBars>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'approach margin'!$B$1:$O$2</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>'approach margin'!$B$1:$O$2</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="12"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1,1 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>3 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>1,1 - 5</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>1,1 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>2 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>3 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>1,1 - 5</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>1,1 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>2 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>3 - 1</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>1,1 - 5</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>BENCHMARK</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>SF</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>LEUVEN</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                  <c15:fullRef>
+                    <c15:sqref>'approach margin'!$B$5:$O$5</c15:sqref>
+                  </c15:fullRef>
+                </c:ext>
+              </c:extLst>
+              <c:f>('approach margin'!$B$5:$E$5,'approach margin'!$G$5:$J$5,'approach margin'!$L$5:$O$5)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44.44</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44.48</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>111.36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>106.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>101.16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>101.64</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>99.16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>98.2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>93.8</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-21F8-46EC-A19F-20FECF4EA90F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inBase"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="25"/>
+        <c:axId val="279299688"/>
+        <c:axId val="279301984"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="1"/>
+                <c:order val="1"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'approach margin'!$A$4</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>time std</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inBase"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst>
+                    <c:ext uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:errBars>
+                  <c:errBarType val="both"/>
+                  <c:errValType val="cust"/>
+                  <c:noEndCap val="0"/>
+                  <c:plus>
+                    <c:numLit>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numLit>
+                  </c:plus>
+                  <c:minus>
+                    <c:numLit>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>1</c:v>
+                      </c:pt>
+                    </c:numLit>
+                  </c:minus>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c:errBars>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'approach margin'!$B$1:$O$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'approach margin'!$B$1:$O$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="12"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1,1 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>3 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1,1 - 5</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1,1 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>3 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1,1 - 5</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1,1 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>3 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1,1 - 5</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>BENCHMARK</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>SF</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>LEUVEN</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'approach margin'!$B$4:$O$4</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('approach margin'!$B$4:$E$4,'approach margin'!$G$4:$J$4,'approach margin'!$L$4:$O$4)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.99</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>4.08</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>3.25</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.31</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.59</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.35</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>9.51</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>3.85</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>5.63</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>52.18</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>77.45</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000003-21F8-46EC-A19F-20FECF4EA90F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredBarSeries>
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="3"/>
+                <c:order val="3"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>'approach margin'!$A$6</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>score std</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:schemeClr val="accent4"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:dLbls>
+                  <c:spPr>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                  <c:txPr>
+                    <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                      <a:spAutoFit/>
+                    </a:bodyPr>
+                    <a:lstStyle/>
+                    <a:p>
+                      <a:pPr>
+                        <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                          <a:solidFill>
+                            <a:schemeClr val="tx1">
+                              <a:lumMod val="75000"/>
+                              <a:lumOff val="25000"/>
+                            </a:schemeClr>
+                          </a:solidFill>
+                          <a:latin typeface="+mn-lt"/>
+                          <a:ea typeface="+mn-ea"/>
+                          <a:cs typeface="+mn-cs"/>
+                        </a:defRPr>
+                      </a:pPr>
+                      <a:endParaRPr lang="nl-BE"/>
+                    </a:p>
+                  </c:txPr>
+                  <c:dLblPos val="inBase"/>
+                  <c:showLegendKey val="0"/>
+                  <c:showVal val="1"/>
+                  <c:showCatName val="0"/>
+                  <c:showSerName val="0"/>
+                  <c:showPercent val="0"/>
+                  <c:showBubbleSize val="0"/>
+                  <c:showLeaderLines val="0"/>
+                  <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                      <c15:showLeaderLines val="1"/>
+                      <c15:leaderLines>
+                        <c:spPr>
+                          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                            <a:solidFill>
+                              <a:schemeClr val="tx1">
+                                <a:lumMod val="35000"/>
+                                <a:lumOff val="65000"/>
+                              </a:schemeClr>
+                            </a:solidFill>
+                            <a:round/>
+                          </a:ln>
+                          <a:effectLst/>
+                        </c:spPr>
+                      </c15:leaderLines>
+                    </c:ext>
+                  </c:extLst>
+                </c:dLbls>
+                <c:cat>
+                  <c:multiLvlStrRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'approach margin'!$B$1:$O$2</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>'approach margin'!$B$1:$O$2</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:multiLvlStrCache>
+                      <c:ptCount val="12"/>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>1,1 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="1">
+                          <c:v>2 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="2">
+                          <c:v>3 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="3">
+                          <c:v>1,1 - 5</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>1,1 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="5">
+                          <c:v>2 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="6">
+                          <c:v>3 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="7">
+                          <c:v>1,1 - 5</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>1,1 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="9">
+                          <c:v>2 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="10">
+                          <c:v>3 - 1</c:v>
+                        </c:pt>
+                        <c:pt idx="11">
+                          <c:v>1,1 - 5</c:v>
+                        </c:pt>
+                      </c:lvl>
+                      <c:lvl>
+                        <c:pt idx="0">
+                          <c:v>BENCHMARK</c:v>
+                        </c:pt>
+                        <c:pt idx="4">
+                          <c:v>SF</c:v>
+                        </c:pt>
+                        <c:pt idx="8">
+                          <c:v>LEUVEN</c:v>
+                        </c:pt>
+                      </c:lvl>
+                    </c:multiLvlStrCache>
+                  </c:multiLvlStrRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:fullRef>
+                          <c15:sqref>'approach margin'!$B$6:$O$6</c15:sqref>
+                        </c15:fullRef>
+                        <c15:formulaRef>
+                          <c15:sqref>('approach margin'!$B$6:$E$6,'approach margin'!$G$6:$J$6,'approach margin'!$L$6:$O$6)</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="12"/>
+                      <c:pt idx="0">
+                        <c:v>0.57999999999999996</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>0.36</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>0.33</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>0.7</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.22</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.99</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.55000000000000004</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.82</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.3</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.69</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>3.23</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000004-21F8-46EC-A19F-20FECF4EA90F}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -17652,6 +19529,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -17973,6 +19890,509 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -23064,6 +25484,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590551</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61EA67E4-7F39-460A-8DFF-991330CFF2F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -23364,7 +25827,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q45" sqref="Q45"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23595,7 +26058,7 @@
   <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="R15" sqref="R15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23655,149 +26118,651 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>6.42</v>
+      </c>
+      <c r="C3">
+        <v>21.91</v>
+      </c>
+      <c r="D3">
+        <v>16.97</v>
+      </c>
+      <c r="E3">
+        <v>39.85</v>
+      </c>
+      <c r="G3">
+        <v>22.44</v>
+      </c>
+      <c r="H3">
+        <v>31.45</v>
+      </c>
+      <c r="I3">
+        <v>53.06</v>
+      </c>
+      <c r="J3">
+        <v>65</v>
+      </c>
+      <c r="L3">
+        <v>77.41</v>
+      </c>
+      <c r="M3">
+        <v>124.45</v>
+      </c>
+      <c r="N3">
+        <v>316.87</v>
+      </c>
+      <c r="O3">
+        <v>338.67</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0.99</v>
+      </c>
+      <c r="C4">
+        <v>4.08</v>
+      </c>
+      <c r="D4">
+        <v>3.25</v>
+      </c>
+      <c r="E4">
+        <v>2.31</v>
+      </c>
+      <c r="G4">
+        <v>1.59</v>
+      </c>
+      <c r="H4">
+        <v>2.35</v>
+      </c>
+      <c r="I4">
+        <v>9.51</v>
+      </c>
+      <c r="J4">
+        <v>3.85</v>
+      </c>
+      <c r="L4">
+        <v>10</v>
+      </c>
+      <c r="M4">
+        <v>5.63</v>
+      </c>
+      <c r="N4">
+        <v>52.18</v>
+      </c>
+      <c r="O4">
+        <v>77.45</v>
+      </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>49</v>
+      </c>
+      <c r="C5">
+        <v>44.44</v>
+      </c>
+      <c r="D5">
+        <v>44.52</v>
+      </c>
+      <c r="E5">
+        <v>44.48</v>
+      </c>
+      <c r="G5">
+        <v>111.36</v>
+      </c>
+      <c r="H5">
+        <v>106.4</v>
+      </c>
+      <c r="I5">
+        <v>106</v>
+      </c>
+      <c r="J5">
+        <v>101.16</v>
+      </c>
+      <c r="L5">
+        <v>101.64</v>
+      </c>
+      <c r="M5">
+        <v>99.16</v>
+      </c>
+      <c r="N5">
+        <v>98.2</v>
+      </c>
+      <c r="O5">
+        <v>93.8</v>
+      </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.36</v>
+      </c>
+      <c r="D6">
+        <v>0.33</v>
+      </c>
+      <c r="E6">
+        <v>0.33</v>
+      </c>
+      <c r="G6">
+        <v>0.7</v>
+      </c>
+      <c r="H6">
+        <v>1.22</v>
+      </c>
+      <c r="I6">
+        <v>0.99</v>
+      </c>
+      <c r="J6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="L6">
+        <v>0.82</v>
+      </c>
+      <c r="M6">
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <v>0.69</v>
+      </c>
+      <c r="O6">
+        <v>3.23</v>
+      </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="e">
+      <c r="B8">
         <f>1.96*B4/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D8" t="e">
+        <v>0.86777326070811833</v>
+      </c>
+      <c r="C8">
+        <f>1.96*C4/SQRT(C7)</f>
+        <v>3.5762776804940635</v>
+      </c>
+      <c r="D8">
         <f t="shared" ref="D8:O8" si="0">1.96*D4/SQRT(D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E8" t="e">
+        <v>2.8487506033347318</v>
+      </c>
+      <c r="E8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" t="e">
+        <v>2.0248042749856094</v>
+      </c>
+      <c r="G8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" t="e">
-        <f>1.96*C4/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>1.3936964490160688</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e">
+        <v>2.059865820872806</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L8" t="e">
-        <f t="shared" ref="L8" si="1">1.96*L4/SQRT(L7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M8" t="e">
-        <f t="shared" ref="M8" si="2">1.96*M4/SQRT(M7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>8.3358825346810139</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" t="e">
+        <v>3.3746737916426826</v>
+      </c>
+      <c r="L8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>8.7653864717991752</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>4.9349125836229355</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="0"/>
+        <v>45.737786609848101</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="0"/>
+        <v>67.887918224084615</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="e">
+      <c r="B9">
         <f>1.96*B6/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="D9" t="e">
-        <f t="shared" ref="D9" si="3">1.96*D6/SQRT(D7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E9" t="e">
-        <f t="shared" ref="E9" si="4">1.96*E6/SQRT(E7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" t="e">
-        <f>1.96*G6/SQRT(G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" t="e">
+        <v>0.50839241536435209</v>
+      </c>
+      <c r="C9">
         <f>1.96*C6/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" t="e">
-        <f t="shared" ref="I9:J9" si="5">1.96*I6/SQRT(I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L9" t="e">
-        <f>1.96*L6/SQRT(L7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" t="e">
-        <f t="shared" ref="M9" si="6">1.96*M6/SQRT(M7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="e">
-        <f>1.96*N6/SQRT(N7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" t="e">
-        <f t="shared" ref="O9" si="7">1.96*O6/SQRT(O7)</f>
-        <v>#DIV/0!</v>
+        <v>0.31555391298477031</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:O9" si="1">1.96*D6/SQRT(D7)</f>
+        <v>0.28925775356937278</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0.28925775356937278</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0.61357705302594223</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="1"/>
+        <v>1.0693771495594995</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="1"/>
+        <v>0.86777326070811833</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="1"/>
+        <v>0.48209625594895467</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="1"/>
+        <v>0.71876169068753237</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="1"/>
+        <v>0.26296159415397524</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="1"/>
+        <v>0.60481166655414298</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>2.8312198303911336</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="10" width="13.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2">
+        <v>9</v>
+      </c>
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>684</v>
+      </c>
+      <c r="F2">
+        <v>684</v>
+      </c>
+      <c r="G2">
+        <v>6580</v>
+      </c>
+      <c r="H2">
+        <v>3079</v>
+      </c>
+      <c r="I2">
+        <v>3079</v>
+      </c>
+      <c r="J2">
+        <v>18876</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" t="s">
+        <v>66</v>
+      </c>
+      <c r="D3" t="s">
+        <v>69</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H3" t="s">
+        <v>67</v>
+      </c>
+      <c r="I3" t="s">
+        <v>67</v>
+      </c>
+      <c r="J3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B4">
+        <v>88</v>
+      </c>
+      <c r="C4">
+        <v>146</v>
+      </c>
+      <c r="D4">
+        <v>96</v>
+      </c>
+      <c r="E4">
+        <v>1392</v>
+      </c>
+      <c r="F4">
+        <v>1490</v>
+      </c>
+      <c r="G4">
+        <v>4325</v>
+      </c>
+      <c r="H4">
+        <v>1312</v>
+      </c>
+      <c r="I4">
+        <v>864</v>
+      </c>
+      <c r="J4">
+        <v>3041</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>11</v>
+      </c>
+      <c r="D5">
+        <v>10</v>
+      </c>
+      <c r="E5">
+        <v>34</v>
+      </c>
+      <c r="F5">
+        <v>38</v>
+      </c>
+      <c r="G5">
+        <v>107</v>
+      </c>
+      <c r="H5">
+        <v>34</v>
+      </c>
+      <c r="I5">
+        <v>22</v>
+      </c>
+      <c r="J5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.01</v>
+      </c>
+      <c r="E6">
+        <v>1.37</v>
+      </c>
+      <c r="F6">
+        <v>1.82</v>
+      </c>
+      <c r="G6">
+        <v>15.88</v>
+      </c>
+      <c r="H6">
+        <v>1.51</v>
+      </c>
+      <c r="I6">
+        <v>0.53</v>
+      </c>
+      <c r="J6">
+        <v>14.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7">
+        <v>0.33</v>
+      </c>
+      <c r="C7">
+        <v>0.65</v>
+      </c>
+      <c r="D7">
+        <v>1.06</v>
+      </c>
+      <c r="E7">
+        <v>7.68</v>
+      </c>
+      <c r="F7">
+        <v>7.98</v>
+      </c>
+      <c r="G7">
+        <v>15.41</v>
+      </c>
+      <c r="H7">
+        <v>23.49</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+      <c r="J7">
+        <v>67.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B8">
+        <v>10.48</v>
+      </c>
+      <c r="C8">
+        <v>17.95</v>
+      </c>
+      <c r="D8">
+        <v>7.17</v>
+      </c>
+      <c r="E8">
+        <v>32.81</v>
+      </c>
+      <c r="F8">
+        <v>36.81</v>
+      </c>
+      <c r="G8">
+        <v>75.44</v>
+      </c>
+      <c r="H8">
+        <v>135.86000000000001</v>
+      </c>
+      <c r="I8">
+        <v>62.03</v>
+      </c>
+      <c r="J8">
+        <v>460.46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9">
+        <v>10.97</v>
+      </c>
+      <c r="C9">
+        <v>18.87</v>
+      </c>
+      <c r="D9">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="E9">
+        <v>42.43</v>
+      </c>
+      <c r="F9">
+        <v>47.32</v>
+      </c>
+      <c r="G9">
+        <v>108.28</v>
+      </c>
+      <c r="H9">
+        <v>161.85</v>
+      </c>
+      <c r="I9">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="J9">
+        <v>544.73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>27.24</v>
+      </c>
+      <c r="C10">
+        <v>44.76</v>
+      </c>
+      <c r="D10">
+        <v>28.72</v>
+      </c>
+      <c r="E10">
+        <v>106.2</v>
+      </c>
+      <c r="F10">
+        <v>114.36</v>
+      </c>
+      <c r="G10">
+        <v>325.10000000000002</v>
+      </c>
+      <c r="H10">
+        <v>97.44</v>
+      </c>
+      <c r="I10">
+        <v>65.52</v>
+      </c>
+      <c r="J10">
+        <v>227.27</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -23806,8 +26771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23894,19 +26859,19 @@
       <c r="H4" s="1">
         <v>57.3</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N4" s="1">
         <v>127.62</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R4" s="1" t="s">
@@ -23941,7 +26906,7 @@
       <c r="O5" s="1">
         <v>118.86</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="3" t="s">
         <v>7</v>
       </c>
       <c r="R5" s="1" t="s">
@@ -23976,7 +26941,7 @@
       <c r="O6" s="1">
         <v>53.8</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24061,19 +27026,19 @@
       <c r="H13" s="1">
         <v>311.52</v>
       </c>
-      <c r="I13" s="4" t="s">
+      <c r="I13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="4" t="s">
+      <c r="J13" s="3" t="s">
         <v>7</v>
       </c>
       <c r="N13" s="1">
         <v>283.60000000000002</v>
       </c>
-      <c r="O13" s="4" t="s">
+      <c r="O13" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="P13" s="4" t="s">
+      <c r="P13" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24105,7 +27070,7 @@
       <c r="O14" s="1">
         <v>98.92</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="P14" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24137,7 +27102,7 @@
       <c r="O15" s="1">
         <v>98.15</v>
       </c>
-      <c r="P15" s="4" t="s">
+      <c r="P15" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -24153,7 +27118,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:K7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24193,83 +27158,173 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="F3">
+        <v>26.95</v>
+      </c>
+      <c r="G3">
+        <v>32</v>
+      </c>
+      <c r="J3">
+        <v>55.9</v>
+      </c>
+      <c r="K3">
+        <v>125.02</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>1.74</v>
+      </c>
+      <c r="C4">
+        <v>4.88</v>
+      </c>
+      <c r="F4">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="G4">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="J4">
+        <v>13.93</v>
+      </c>
+      <c r="K4">
+        <v>19.11</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>43.2</v>
+      </c>
+      <c r="C5">
+        <v>44.8</v>
+      </c>
+      <c r="F5">
+        <v>105.08</v>
+      </c>
+      <c r="G5">
+        <v>106.75</v>
+      </c>
+      <c r="J5">
+        <v>98.24</v>
+      </c>
+      <c r="K5">
+        <v>98.48</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>0.37</v>
+      </c>
+      <c r="C6">
+        <v>0.32</v>
+      </c>
+      <c r="F6">
+        <v>1.25</v>
+      </c>
+      <c r="G6">
+        <v>1.33</v>
+      </c>
+      <c r="J6">
+        <v>1.35</v>
+      </c>
+      <c r="K6">
+        <v>1.62</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="F7">
+        <v>5</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="K7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="e">
+      <c r="B8">
         <f>1.96*B4/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" t="e">
+        <v>1.5251772460930566</v>
+      </c>
+      <c r="C8">
         <f t="shared" ref="C8" si="0">1.96*C4/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F8" t="e">
+        <v>4.2775085982379979</v>
+      </c>
+      <c r="F8">
         <f>1.96*F4/SQRT(F7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G8" t="e">
+        <v>3.848004661119838</v>
+      </c>
+      <c r="G8">
         <f>1.96*G4/SQRT(G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e">
+        <v>2.4010000000000002</v>
+      </c>
+      <c r="J8">
         <f>1.96*J4/SQRT(J7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K8" t="e">
+        <v>12.21018335521625</v>
+      </c>
+      <c r="K8">
         <f>1.96*K4/SQRT(K7)</f>
-        <v>#DIV/0!</v>
+        <v>16.750653547608223</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="e">
+      <c r="B9">
         <f>1.96*B6/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" t="e">
+        <v>0.32431929945656945</v>
+      </c>
+      <c r="C9">
         <f t="shared" ref="C9" si="1">1.96*C6/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F9" t="e">
+        <v>0.28049236709757358</v>
+      </c>
+      <c r="F9">
         <f>1.96*F6/SQRT(F7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G9" t="e">
+        <v>1.0956733089748969</v>
+      </c>
+      <c r="G9">
         <f>1.96*G6/SQRT(G7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" t="e">
+        <v>1.3034000000000001</v>
+      </c>
+      <c r="J9">
         <f>1.96*J6/SQRT(J7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K9" t="e">
+        <v>1.1833271736928885</v>
+      </c>
+      <c r="K9">
         <f>1.96*K6/SQRT(K7)</f>
-        <v>#DIV/0!</v>
+        <v>1.4199926084314665</v>
       </c>
     </row>
   </sheetData>
@@ -24283,7 +27338,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="S18" sqref="S18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24332,107 +27387,242 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>1.53</v>
+      </c>
+      <c r="C3">
+        <v>18.11</v>
+      </c>
+      <c r="D3">
+        <v>232.94</v>
+      </c>
+      <c r="H3">
+        <v>3.71</v>
+      </c>
+      <c r="I3">
+        <v>34.869999999999997</v>
+      </c>
+      <c r="J3">
+        <v>193.58</v>
+      </c>
+      <c r="N3">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="O3">
+        <v>138.16</v>
+      </c>
+      <c r="P3">
+        <v>810.25</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0.13</v>
+      </c>
+      <c r="C4">
+        <v>2.02</v>
+      </c>
+      <c r="D4">
+        <v>68.12</v>
+      </c>
+      <c r="H4">
+        <v>0.08</v>
+      </c>
+      <c r="I4">
+        <v>3.37</v>
+      </c>
+      <c r="J4">
+        <v>15.95</v>
+      </c>
+      <c r="N4">
+        <v>0.02</v>
+      </c>
+      <c r="O4">
+        <v>22.75</v>
+      </c>
+      <c r="P4">
+        <v>85.54</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>47.8</v>
+      </c>
+      <c r="C5">
+        <v>44.48</v>
+      </c>
+      <c r="D5">
+        <v>43.8</v>
+      </c>
+      <c r="H5">
+        <v>117.5</v>
+      </c>
+      <c r="I5">
+        <v>107.16</v>
+      </c>
+      <c r="J5">
+        <v>102.35</v>
+      </c>
+      <c r="N5">
+        <v>112.5</v>
+      </c>
+      <c r="O5">
+        <v>99.04</v>
+      </c>
+      <c r="P5">
+        <v>97.92</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>0.76</v>
+      </c>
+      <c r="C6">
+        <v>0.18</v>
+      </c>
+      <c r="D6">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="H6">
+        <v>1.08</v>
+      </c>
+      <c r="I6">
+        <v>1.01</v>
+      </c>
+      <c r="J6">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="N6">
+        <v>1.8</v>
+      </c>
+      <c r="O6">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="P6">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>3</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="e">
+      <c r="B8">
         <f>1.96*B4/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" t="e">
+        <v>0.11395002413338928</v>
+      </c>
+      <c r="C8">
         <f t="shared" ref="C8:P8" si="0">1.96*C4/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" t="e">
+        <v>1.7706080673034335</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" t="e">
+        <v>59.70981264589598</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>7.8399999999999997E-2</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e">
+        <v>2.953935240996322</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>15.630999999999998</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" t="e">
+        <v>2.2632130552233332E-2</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" t="e">
+        <v>19.941254223343122</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>83.8292</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="e">
+      <c r="B9">
         <f>1.96*B6/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" t="e">
+        <v>0.6661693718567373</v>
+      </c>
+      <c r="C9">
         <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" t="e">
+        <v>0.15777695649238516</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" t="e">
+        <v>6.1357705302594233E-2</v>
+      </c>
+      <c r="H9">
         <f>1.96*H6/SQRT(H7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" t="e">
+        <v>1.0584</v>
+      </c>
+      <c r="I9">
         <f t="shared" ref="I9:J9" si="2">1.96*I6/SQRT(I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" t="e">
+        <v>0.88530403365171673</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>0.56839999999999991</v>
+      </c>
+      <c r="N9">
         <f>1.96*N6/SQRT(N7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" t="e">
+        <v>2.0368917497009997</v>
+      </c>
+      <c r="O9">
         <f t="shared" ref="O9:P9" si="3">1.96*O6/SQRT(O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" t="e">
+        <v>0.98172328484150773</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>2.7439999999999998</v>
       </c>
     </row>
   </sheetData>
@@ -24445,8 +27635,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:P7"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24495,107 +27685,242 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>15.74</v>
+      </c>
+      <c r="C3">
+        <v>17.690000000000001</v>
+      </c>
+      <c r="D3">
+        <v>28.77</v>
+      </c>
+      <c r="H3">
+        <v>29.67</v>
+      </c>
+      <c r="I3">
+        <v>35.28</v>
+      </c>
+      <c r="J3">
+        <v>43.8</v>
+      </c>
+      <c r="N3">
+        <v>99.35</v>
+      </c>
+      <c r="O3">
+        <v>140.69</v>
+      </c>
+      <c r="P3">
+        <v>150.80000000000001</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>1.5</v>
+      </c>
+      <c r="C4">
+        <v>1.64</v>
+      </c>
+      <c r="D4">
+        <v>6.27</v>
+      </c>
+      <c r="H4">
+        <v>2.75</v>
+      </c>
+      <c r="I4">
+        <v>6.63</v>
+      </c>
+      <c r="J4">
+        <v>6.09</v>
+      </c>
+      <c r="N4">
+        <v>4.45</v>
+      </c>
+      <c r="O4">
+        <v>7.65</v>
+      </c>
+      <c r="P4">
+        <v>14.24</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>44.64</v>
+      </c>
+      <c r="C5">
+        <v>44.44</v>
+      </c>
+      <c r="D5">
+        <v>44.8</v>
+      </c>
+      <c r="H5">
+        <v>109.65</v>
+      </c>
+      <c r="I5">
+        <v>106.72</v>
+      </c>
+      <c r="J5">
+        <v>105.76</v>
+      </c>
+      <c r="N5">
+        <v>99.36</v>
+      </c>
+      <c r="O5">
+        <v>98.85</v>
+      </c>
+      <c r="P5">
+        <v>98.68</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>0.48</v>
+      </c>
+      <c r="C6">
+        <v>0.26</v>
+      </c>
+      <c r="D6">
+        <v>0.72</v>
+      </c>
+      <c r="H6">
+        <v>1.79</v>
+      </c>
+      <c r="I6">
+        <v>0.73</v>
+      </c>
+      <c r="J6">
+        <v>0.78</v>
+      </c>
+      <c r="N6">
+        <v>0.65</v>
+      </c>
+      <c r="O6">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="P6">
+        <v>0.95</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>4</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="e">
+      <c r="B8">
         <f>1.96*B4/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" t="e">
+        <v>1.3148079707698763</v>
+      </c>
+      <c r="C8">
         <f t="shared" ref="C8:P8" si="0">1.96*C4/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" t="e">
+        <v>1.4375233813750647</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" t="e">
+        <v>5.4958973178180823</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>2.6949999999999998</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e">
+        <v>5.8114512308028532</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>5.3381203613256973</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" t="e">
+        <v>3.9005969799506328</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" t="e">
+        <v>7.4969999999999999</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>12.481910335842025</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="e">
+      <c r="B9">
         <f>1.96*B6/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" t="e">
+        <v>0.4207385506463604</v>
+      </c>
+      <c r="C9">
         <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" t="e">
+        <v>0.22790004826677857</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" t="e">
+        <v>0.63110782596954063</v>
+      </c>
+      <c r="H9">
         <f>1.96*H6/SQRT(H7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" t="e">
+        <v>1.7542</v>
+      </c>
+      <c r="I9">
         <f t="shared" ref="I9:J9" si="2">1.96*I6/SQRT(I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" t="e">
+        <v>0.63987321244133977</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>0.68370014480033559</v>
+      </c>
+      <c r="N9">
         <f>1.96*N6/SQRT(N7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" t="e">
+        <v>0.56975012066694641</v>
+      </c>
+      <c r="O9">
         <f t="shared" ref="O9:P9" si="3">1.96*O6/SQRT(O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" t="e">
+        <v>1.0682</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.83271171482092154</v>
       </c>
     </row>
   </sheetData>
@@ -24682,7 +28007,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24737,6 +28062,9 @@
       <c r="J3">
         <v>124.58</v>
       </c>
+      <c r="K3">
+        <v>419.08</v>
+      </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -24757,6 +28085,9 @@
       <c r="J4">
         <v>18.309999999999999</v>
       </c>
+      <c r="K4">
+        <v>74.77</v>
+      </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -24777,6 +28108,9 @@
       <c r="J5">
         <v>98.85</v>
       </c>
+      <c r="K5">
+        <v>92.27</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -24797,6 +28131,9 @@
       <c r="J6">
         <v>0.89</v>
       </c>
+      <c r="K6">
+        <v>2.99</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -24817,63 +28154,66 @@
       <c r="J7">
         <v>48</v>
       </c>
+      <c r="K7">
+        <v>40</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C8" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F8" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G8" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J8" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K8" t="e">
-        <f t="shared" ref="K8" si="0">1.96*K4/SQRT(K7)</f>
-        <v>#DIV/0!</v>
+      <c r="B8">
+        <f t="shared" ref="B8:J8" si="0">1.96*B4/SQRT(B7)</f>
+        <v>0.6513867668290475</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>5.05864191260856</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>0.94079999999999997</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>4.7592811857254249</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="0"/>
+        <v>5.1799288801424037</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ref="K8" si="1">1.96*K4/SQRT(K7)</f>
+        <v>23.171463063777388</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="C9" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="F9" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="G9" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="J9" t="e">
-        <f>1.96*#REF!/SQRT(#REF!)</f>
-        <v>#REF!</v>
-      </c>
-      <c r="K9" t="e">
-        <f t="shared" ref="K9" si="1">1.96*K6/SQRT(K7)</f>
-        <v>#DIV/0!</v>
+      <c r="B9">
+        <f t="shared" ref="B9:J9" si="2">1.96*B6/SQRT(B7)</f>
+        <v>8.3155757467537977E-2</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="2"/>
+        <v>4.7121595898271522E-2</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="2"/>
+        <v>0.49279999999999996</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.19125824217533735</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="2"/>
+        <v>0.25178245239359581</v>
+      </c>
+      <c r="K9">
+        <f t="shared" ref="K9" si="3">1.96*K6/SQRT(K7)</f>
+        <v>0.92661059998253847</v>
       </c>
     </row>
   </sheetData>
@@ -24887,7 +28227,7 @@
   <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:P7"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24936,108 +28276,242 @@
       <c r="A3" t="s">
         <v>10</v>
       </c>
+      <c r="B3">
+        <v>7.02</v>
+      </c>
+      <c r="C3">
+        <v>19.14</v>
+      </c>
+      <c r="D3">
+        <v>41.52</v>
+      </c>
+      <c r="H3">
+        <v>10.78</v>
+      </c>
+      <c r="I3">
+        <v>32.32</v>
+      </c>
+      <c r="J3">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="N3">
+        <v>51.37</v>
+      </c>
+      <c r="O3">
+        <v>127.32</v>
+      </c>
+      <c r="P3">
+        <v>210.74</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>12</v>
       </c>
+      <c r="B4">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="C4">
+        <v>1.06</v>
+      </c>
+      <c r="D4">
+        <v>7.45</v>
+      </c>
+      <c r="H4">
+        <v>0.97</v>
+      </c>
+      <c r="I4">
+        <v>1.79</v>
+      </c>
+      <c r="J4">
+        <v>7.25</v>
+      </c>
+      <c r="N4">
+        <v>2</v>
+      </c>
+      <c r="O4">
+        <v>21.11</v>
+      </c>
+      <c r="P4">
+        <v>15.16</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>44.44</v>
+      </c>
+      <c r="C5">
+        <v>44.8</v>
+      </c>
+      <c r="D5">
+        <v>44.76</v>
+      </c>
+      <c r="H5">
+        <v>105.32</v>
+      </c>
+      <c r="I5">
+        <v>106.64</v>
+      </c>
+      <c r="J5">
+        <v>106.84</v>
+      </c>
+      <c r="N5">
+        <v>97.92</v>
+      </c>
+      <c r="O5">
+        <v>98.72</v>
+      </c>
+      <c r="P5">
+        <v>98.52</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
+      <c r="B6">
+        <v>0.26</v>
+      </c>
+      <c r="C6">
+        <v>0.24</v>
+      </c>
+      <c r="D6">
+        <v>0.33</v>
+      </c>
+      <c r="H6">
+        <v>0.9</v>
+      </c>
+      <c r="I6">
+        <v>1.41</v>
+      </c>
+      <c r="J6">
+        <v>1.26</v>
+      </c>
+      <c r="N6">
+        <v>0.74</v>
+      </c>
+      <c r="O6">
+        <v>0.9</v>
+      </c>
+      <c r="P6">
+        <v>0.57999999999999996</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>42</v>
       </c>
-      <c r="P7" s="3"/>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7">
+        <v>5</v>
+      </c>
+      <c r="H7">
+        <v>5</v>
+      </c>
+      <c r="I7">
+        <v>5</v>
+      </c>
+      <c r="J7">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>5</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>43</v>
       </c>
-      <c r="B8" t="e">
+      <c r="B8">
         <f>1.96*B4/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C8" t="e">
+        <v>0.25419620768217605</v>
+      </c>
+      <c r="C8">
         <f t="shared" ref="C8:P8" si="0">1.96*C4/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D8" t="e">
+        <v>0.92913096601071254</v>
+      </c>
+      <c r="D8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H8" t="e">
+        <v>6.5302129214903859</v>
+      </c>
+      <c r="H8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I8" t="e">
+        <v>0.85024248776451994</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J8" t="e">
+        <v>1.5690041784520523</v>
+      </c>
+      <c r="J8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N8" t="e">
+        <v>6.3549051920544013</v>
+      </c>
+      <c r="N8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O8" t="e">
+        <v>1.7530772943598349</v>
+      </c>
+      <c r="O8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P8" t="e">
+        <v>18.503730841968057</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="0"/>
-        <v>#DIV/0!</v>
+        <v>13.288325891247549</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="e">
+      <c r="B9">
         <f>1.96*B6/SQRT(B7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="C9" t="e">
+        <v>0.22790004826677857</v>
+      </c>
+      <c r="C9">
         <f t="shared" ref="C9:D9" si="1">1.96*C6/SQRT(C7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D9" t="e">
+        <v>0.2103692753231802</v>
+      </c>
+      <c r="D9">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="H9" t="e">
+        <v>0.28925775356937278</v>
+      </c>
+      <c r="H9">
         <f>1.96*H6/SQRT(H7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="I9" t="e">
+        <v>0.78888478246192573</v>
+      </c>
+      <c r="I9">
         <f t="shared" ref="I9:J9" si="2">1.96*I6/SQRT(I7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="J9" t="e">
+        <v>1.2359194925236836</v>
+      </c>
+      <c r="J9">
         <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" t="e">
+        <v>1.104438695446696</v>
+      </c>
+      <c r="N9">
         <f>1.96*N6/SQRT(N7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" t="e">
+        <v>0.64863859891313891</v>
+      </c>
+      <c r="O9">
         <f t="shared" ref="O9:P9" si="3">1.96*O6/SQRT(O7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" t="e">
+        <v>0.78888478246192573</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="3"/>
-        <v>#DIV/0!</v>
+        <v>0.50839241536435209</v>
       </c>
     </row>
   </sheetData>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="682"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="682" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="convexity" sheetId="7" r:id="rId1"/>
@@ -6864,22 +6864,22 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>stability!$B$8:$K$8</c15:sqref>
+                      <c15:sqref>stability!$B$4:$K$4</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(stability!$B$8,stability!$F$8,stability!$J$8)</c:f>
+                <c:f>(stability!$B$4,stability!$F$4,stability!$J$4)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.6513867668290475</c:v>
+                    <c:v>2.35</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.94079999999999997</c:v>
+                    <c:v>3.36</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.1799288801424037</c:v>
+                    <c:v>18.309999999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -6889,22 +6889,22 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>stability!$B$8:$K$8</c15:sqref>
+                      <c15:sqref>stability!$B$4:$K$4</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(stability!$B$8,stability!$F$8,stability!$J$8)</c:f>
+                <c:f>(stability!$B$4,stability!$F$4,stability!$J$4)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>0.6513867668290475</c:v>
+                    <c:v>2.35</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.94079999999999997</c:v>
+                    <c:v>3.36</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>5.1799288801424037</c:v>
+                    <c:v>18.309999999999999</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7082,22 +7082,22 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>stability!$B$9:$K$9</c15:sqref>
+                      <c15:sqref>stability!$B$6:$K$6</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(stability!$B$9,stability!$F$9,stability!$J$9)</c:f>
+                <c:f>(stability!$B$6,stability!$F$6,stability!$J$6)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>8.3155757467537977E-2</c:v>
+                    <c:v>0.3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.49279999999999996</c:v>
+                    <c:v>1.76</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.25178245239359581</c:v>
+                    <c:v>0.89</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -7107,22 +7107,22 @@
                 <c:extLst>
                   <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                     <c15:fullRef>
-                      <c15:sqref>stability!$B$9:$K$9</c15:sqref>
+                      <c15:sqref>stability!$B$6:$K$6</c15:sqref>
                     </c15:fullRef>
                   </c:ext>
                 </c:extLst>
-                <c:f>(stability!$B$9,stability!$F$9,stability!$J$9)</c:f>
+                <c:f>(stability!$B$6,stability!$F$6,stability!$J$6)</c:f>
                 <c:numCache>
                   <c:formatCode>General</c:formatCode>
                   <c:ptCount val="3"/>
                   <c:pt idx="0">
-                    <c:v>8.3155757467537977E-2</c:v>
+                    <c:v>0.3</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>0.49279999999999996</c:v>
+                    <c:v>1.76</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>0.25178245239359581</c:v>
+                    <c:v>0.89</c:v>
                   </c:pt>
                 </c:numCache>
               </c:numRef>
@@ -28887,7 +28887,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U18" sqref="U18"/>
     </sheetView>
   </sheetViews>
@@ -30038,8 +30038,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30604,7 +30604,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
@@ -31274,7 +31274,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31496,7 +31496,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="682" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="682" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="convexity" sheetId="7" r:id="rId1"/>
@@ -23,9 +23,6 @@
     <sheet name="max time" sheetId="10" r:id="rId9"/>
     <sheet name="approach margin" sheetId="11" r:id="rId10"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId11"/>
-  </externalReferences>
   <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -12336,7 +12333,7 @@
                 <c:order val="1"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$A$3</c15:sqref>
@@ -12363,7 +12360,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$1:$J$1</c15:sqref>
@@ -12404,7 +12401,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$3:$J$3</c15:sqref>
@@ -12444,7 +12441,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000005-CCCD-4ED9-96EA-73301D37D0A3}"/>
                   </c:ext>
@@ -12457,7 +12454,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$A$4</c15:sqref>
@@ -12484,7 +12481,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$1:$J$1</c15:sqref>
@@ -12525,7 +12522,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$4:$J$4</c15:sqref>
@@ -12565,7 +12562,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000006-CCCD-4ED9-96EA-73301D37D0A3}"/>
                   </c:ext>
@@ -12578,7 +12575,7 @@
                 <c:order val="3"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$A$5</c15:sqref>
@@ -12605,7 +12602,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$1:$J$1</c15:sqref>
@@ -12646,7 +12643,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$5:$J$5</c15:sqref>
@@ -12686,7 +12683,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000007-CCCD-4ED9-96EA-73301D37D0A3}"/>
                   </c:ext>
@@ -12699,7 +12696,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$A$6</c15:sqref>
@@ -12726,7 +12723,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$1:$J$1</c15:sqref>
@@ -12767,7 +12764,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$6:$J$6</c15:sqref>
@@ -12807,7 +12804,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000008-CCCD-4ED9-96EA-73301D37D0A3}"/>
                   </c:ext>
@@ -12820,7 +12817,7 @@
                 <c:order val="5"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$A$7</c15:sqref>
@@ -12847,7 +12844,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$1:$J$1</c15:sqref>
@@ -12888,7 +12885,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$7:$J$7</c15:sqref>
@@ -12928,7 +12925,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000009-CCCD-4ED9-96EA-73301D37D0A3}"/>
                   </c:ext>
@@ -12941,7 +12938,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$A$8</c15:sqref>
@@ -12970,7 +12967,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$1:$J$1</c15:sqref>
@@ -13011,7 +13008,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$8:$J$8</c15:sqref>
@@ -13051,7 +13048,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000A-CCCD-4ED9-96EA-73301D37D0A3}"/>
                   </c:ext>
@@ -13064,7 +13061,7 @@
                 <c:order val="7"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$A$9</c15:sqref>
@@ -13093,7 +13090,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$1:$J$1</c15:sqref>
@@ -13134,7 +13131,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$9:$J$9</c15:sqref>
@@ -13174,7 +13171,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000B-CCCD-4ED9-96EA-73301D37D0A3}"/>
                   </c:ext>
@@ -13187,7 +13184,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$A$10</c15:sqref>
@@ -13216,7 +13213,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$1:$J$1</c15:sqref>
@@ -13257,7 +13254,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$10:$J$10</c15:sqref>
@@ -13297,7 +13294,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{0000000C-CCCD-4ED9-96EA-73301D37D0A3}"/>
                   </c:ext>
@@ -13310,7 +13307,7 @@
                 <c:order val="13"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$A$15</c15:sqref>
@@ -13340,7 +13337,7 @@
                 <c:invertIfNegative val="0"/>
                 <c:cat>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$1:$J$1</c15:sqref>
@@ -13381,7 +13378,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>general!$B$15:$J$15</c15:sqref>
@@ -13421,7 +13418,7 @@
                     </c:numCache>
                   </c:numRef>
                 </c:val>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000012-CCCD-4ED9-96EA-73301D37D0A3}"/>
                   </c:ext>
@@ -28079,515 +28076,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="convexity"/>
-      <sheetName val="general"/>
-      <sheetName val="agility"/>
-      <sheetName val="cutting"/>
-      <sheetName val="time step"/>
-      <sheetName val="points"/>
-      <sheetName val="genetic"/>
-      <sheetName val="stability"/>
-      <sheetName val="max time"/>
-      <sheetName val="approach margin"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>bench small</v>
-          </cell>
-          <cell r="C1" t="str">
-            <v>bench large</v>
-          </cell>
-          <cell r="D1" t="str">
-            <v>spiral</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>sf small 1</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>sf small 2</v>
-          </cell>
-          <cell r="G1" t="str">
-            <v>sf large</v>
-          </cell>
-          <cell r="H1" t="str">
-            <v>leuven small 1</v>
-          </cell>
-          <cell r="I1" t="str">
-            <v>leuven small 2</v>
-          </cell>
-          <cell r="J1" t="str">
-            <v>leuven large</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>obstacles</v>
-          </cell>
-          <cell r="B2">
-            <v>5</v>
-          </cell>
-          <cell r="C2">
-            <v>9</v>
-          </cell>
-          <cell r="D2">
-            <v>11</v>
-          </cell>
-          <cell r="E2">
-            <v>684</v>
-          </cell>
-          <cell r="F2">
-            <v>684</v>
-          </cell>
-          <cell r="G2">
-            <v>6580</v>
-          </cell>
-          <cell r="H2">
-            <v>3079</v>
-          </cell>
-          <cell r="I2">
-            <v>3079</v>
-          </cell>
-          <cell r="J2">
-            <v>18876</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>size</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>25m x 20m</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>40m x 20m</v>
-          </cell>
-          <cell r="D3" t="str">
-            <v>30m x 30m</v>
-          </cell>
-          <cell r="E3" t="str">
-            <v>1km x 1km</v>
-          </cell>
-          <cell r="F3" t="str">
-            <v>1km x 1km</v>
-          </cell>
-          <cell r="G3" t="str">
-            <v>3km x 3km</v>
-          </cell>
-          <cell r="H3" t="str">
-            <v>1km x 1km</v>
-          </cell>
-          <cell r="I3" t="str">
-            <v>1km x 1km</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>3km x 3km</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>length</v>
-          </cell>
-          <cell r="B4">
-            <v>88</v>
-          </cell>
-          <cell r="C4">
-            <v>146</v>
-          </cell>
-          <cell r="D4">
-            <v>96</v>
-          </cell>
-          <cell r="E4">
-            <v>1392</v>
-          </cell>
-          <cell r="F4">
-            <v>1490</v>
-          </cell>
-          <cell r="G4">
-            <v>4325</v>
-          </cell>
-          <cell r="H4">
-            <v>1312</v>
-          </cell>
-          <cell r="I4">
-            <v>864</v>
-          </cell>
-          <cell r="J4">
-            <v>3041</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>segments</v>
-          </cell>
-          <cell r="B5">
-            <v>7</v>
-          </cell>
-          <cell r="C5">
-            <v>11</v>
-          </cell>
-          <cell r="D5">
-            <v>10</v>
-          </cell>
-          <cell r="E5">
-            <v>34</v>
-          </cell>
-          <cell r="F5">
-            <v>38</v>
-          </cell>
-          <cell r="G5">
-            <v>107</v>
-          </cell>
-          <cell r="H5">
-            <v>34</v>
-          </cell>
-          <cell r="I5">
-            <v>22</v>
-          </cell>
-          <cell r="J5">
-            <v>78</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>theta*</v>
-          </cell>
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="C6">
-            <v>0</v>
-          </cell>
-          <cell r="D6">
-            <v>0.01</v>
-          </cell>
-          <cell r="E6">
-            <v>1.37</v>
-          </cell>
-          <cell r="F6">
-            <v>1.82</v>
-          </cell>
-          <cell r="G6">
-            <v>15.88</v>
-          </cell>
-          <cell r="H6">
-            <v>1.51</v>
-          </cell>
-          <cell r="I6">
-            <v>0.53</v>
-          </cell>
-          <cell r="J6">
-            <v>14.65</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>GA</v>
-          </cell>
-          <cell r="B7">
-            <v>0.33</v>
-          </cell>
-          <cell r="C7">
-            <v>0.65</v>
-          </cell>
-          <cell r="D7">
-            <v>1.06</v>
-          </cell>
-          <cell r="E7">
-            <v>7.68</v>
-          </cell>
-          <cell r="F7">
-            <v>7.98</v>
-          </cell>
-          <cell r="G7">
-            <v>15.41</v>
-          </cell>
-          <cell r="H7">
-            <v>23.49</v>
-          </cell>
-          <cell r="I7">
-            <v>14</v>
-          </cell>
-          <cell r="J7">
-            <v>67.55</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>MILP</v>
-          </cell>
-          <cell r="B8">
-            <v>10.48</v>
-          </cell>
-          <cell r="C8">
-            <v>17.95</v>
-          </cell>
-          <cell r="D8">
-            <v>7.17</v>
-          </cell>
-          <cell r="E8">
-            <v>32.81</v>
-          </cell>
-          <cell r="F8">
-            <v>36.81</v>
-          </cell>
-          <cell r="G8">
-            <v>75.44</v>
-          </cell>
-          <cell r="H8">
-            <v>135.86000000000001</v>
-          </cell>
-          <cell r="I8">
-            <v>62.03</v>
-          </cell>
-          <cell r="J8">
-            <v>460.46</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>total</v>
-          </cell>
-          <cell r="B9">
-            <v>10.97</v>
-          </cell>
-          <cell r="C9">
-            <v>18.87</v>
-          </cell>
-          <cell r="D9">
-            <v>8.4600000000000009</v>
-          </cell>
-          <cell r="E9">
-            <v>42.43</v>
-          </cell>
-          <cell r="F9">
-            <v>47.32</v>
-          </cell>
-          <cell r="G9">
-            <v>108.28</v>
-          </cell>
-          <cell r="H9">
-            <v>161.85</v>
-          </cell>
-          <cell r="I9">
-            <v>76.989999999999995</v>
-          </cell>
-          <cell r="J9">
-            <v>544.73</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>score</v>
-          </cell>
-          <cell r="B10">
-            <v>27.24</v>
-          </cell>
-          <cell r="C10">
-            <v>44.76</v>
-          </cell>
-          <cell r="D10">
-            <v>28.72</v>
-          </cell>
-          <cell r="E10">
-            <v>106.2</v>
-          </cell>
-          <cell r="F10">
-            <v>114.36</v>
-          </cell>
-          <cell r="G10">
-            <v>325.10000000000002</v>
-          </cell>
-          <cell r="H10">
-            <v>97.44</v>
-          </cell>
-          <cell r="I10">
-            <v>65.52</v>
-          </cell>
-          <cell r="J10">
-            <v>227.27</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>th*/seg</v>
-          </cell>
-          <cell r="B11">
-            <v>0</v>
-          </cell>
-          <cell r="C11">
-            <v>0</v>
-          </cell>
-          <cell r="D11">
-            <v>1E-3</v>
-          </cell>
-          <cell r="E11">
-            <v>4.0294117647058827E-2</v>
-          </cell>
-          <cell r="F11">
-            <v>4.7894736842105268E-2</v>
-          </cell>
-          <cell r="G11">
-            <v>0.14841121495327103</v>
-          </cell>
-          <cell r="H11">
-            <v>4.4411764705882352E-2</v>
-          </cell>
-          <cell r="I11">
-            <v>2.4090909090909093E-2</v>
-          </cell>
-          <cell r="J11">
-            <v>0.18782051282051282</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>ga/seg</v>
-          </cell>
-          <cell r="B12">
-            <v>4.7142857142857146E-2</v>
-          </cell>
-          <cell r="C12">
-            <v>5.909090909090909E-2</v>
-          </cell>
-          <cell r="D12">
-            <v>0.10600000000000001</v>
-          </cell>
-          <cell r="E12">
-            <v>0.22588235294117645</v>
-          </cell>
-          <cell r="F12">
-            <v>0.21000000000000002</v>
-          </cell>
-          <cell r="G12">
-            <v>0.14401869158878505</v>
-          </cell>
-          <cell r="H12">
-            <v>0.69088235294117639</v>
-          </cell>
-          <cell r="I12">
-            <v>0.63636363636363635</v>
-          </cell>
-          <cell r="J12">
-            <v>0.86602564102564095</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>solve/seg</v>
-          </cell>
-          <cell r="B13">
-            <v>1.4971428571428571</v>
-          </cell>
-          <cell r="C13">
-            <v>1.6318181818181818</v>
-          </cell>
-          <cell r="D13">
-            <v>0.71699999999999997</v>
-          </cell>
-          <cell r="E13">
-            <v>0.96500000000000008</v>
-          </cell>
-          <cell r="F13">
-            <v>0.96868421052631581</v>
-          </cell>
-          <cell r="G13">
-            <v>0.70504672897196263</v>
-          </cell>
-          <cell r="H13">
-            <v>3.9958823529411767</v>
-          </cell>
-          <cell r="I13">
-            <v>2.8195454545454548</v>
-          </cell>
-          <cell r="J13">
-            <v>5.9033333333333333</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>total/seg</v>
-          </cell>
-          <cell r="B14">
-            <v>1.5671428571428572</v>
-          </cell>
-          <cell r="C14">
-            <v>1.7154545454545456</v>
-          </cell>
-          <cell r="D14">
-            <v>0.84600000000000009</v>
-          </cell>
-          <cell r="E14">
-            <v>1.2479411764705883</v>
-          </cell>
-          <cell r="F14">
-            <v>1.2452631578947368</v>
-          </cell>
-          <cell r="G14">
-            <v>1.0119626168224298</v>
-          </cell>
-          <cell r="H14">
-            <v>4.7602941176470583</v>
-          </cell>
-          <cell r="I14">
-            <v>3.4995454545454545</v>
-          </cell>
-          <cell r="J14">
-            <v>6.983717948717949</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>length/seg</v>
-          </cell>
-          <cell r="B15">
-            <v>12.571428571428571</v>
-          </cell>
-          <cell r="C15">
-            <v>13.272727272727273</v>
-          </cell>
-          <cell r="D15">
-            <v>9.6</v>
-          </cell>
-          <cell r="E15">
-            <v>40.941176470588232</v>
-          </cell>
-          <cell r="F15">
-            <v>39.210526315789473</v>
-          </cell>
-          <cell r="G15">
-            <v>40.420560747663551</v>
-          </cell>
-          <cell r="H15">
-            <v>38.588235294117645</v>
-          </cell>
-          <cell r="I15">
-            <v>39.272727272727273</v>
-          </cell>
-          <cell r="J15">
-            <v>38.987179487179489</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -28887,8 +28375,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U18" sqref="U18"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="P45" sqref="P45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29497,13 +28985,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="10" width="13.42578125" customWidth="1"/>
+    <col min="2" max="12" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
@@ -31496,7 +30984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="682" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965" tabRatio="682" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="convexity" sheetId="7" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="79">
   <si>
     <t>BENCHMARK</t>
   </si>
@@ -258,6 +258,18 @@
   </si>
   <si>
     <t>length/seg</t>
+  </si>
+  <si>
+    <t>edges</t>
+  </si>
+  <si>
+    <t>edge/obs</t>
+  </si>
+  <si>
+    <t>time std ratio</t>
+  </si>
+  <si>
+    <t>score std  ratio</t>
   </si>
 </sst>
 </file>
@@ -5440,7 +5452,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="nl-BE" baseline="0"/>
-              <a:t> vertices</a:t>
+              <a:t> edges</a:t>
             </a:r>
             <a:endParaRPr lang="nl-BE"/>
           </a:p>
@@ -5682,31 +5694,31 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6</c:v>
+                    <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>12</c:v>
+                    <c:v>40</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>24</c:v>
+                    <c:v>80</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6</c:v>
+                    <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>12</c:v>
+                    <c:v>40</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>24</c:v>
+                    <c:v>80</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6</c:v>
+                    <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12</c:v>
+                    <c:v>40</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>24</c:v>
+                    <c:v>80</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -5972,31 +5984,31 @@
                 <c:ptCount val="9"/>
                 <c:lvl>
                   <c:pt idx="0">
-                    <c:v>6</c:v>
+                    <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="1">
-                    <c:v>12</c:v>
+                    <c:v>40</c:v>
                   </c:pt>
                   <c:pt idx="2">
-                    <c:v>24</c:v>
+                    <c:v>80</c:v>
                   </c:pt>
                   <c:pt idx="3">
-                    <c:v>6</c:v>
+                    <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="4">
-                    <c:v>12</c:v>
+                    <c:v>40</c:v>
                   </c:pt>
                   <c:pt idx="5">
-                    <c:v>24</c:v>
+                    <c:v>80</c:v>
                   </c:pt>
                   <c:pt idx="6">
-                    <c:v>6</c:v>
+                    <c:v>20</c:v>
                   </c:pt>
                   <c:pt idx="7">
-                    <c:v>12</c:v>
+                    <c:v>40</c:v>
                   </c:pt>
                   <c:pt idx="8">
-                    <c:v>24</c:v>
+                    <c:v>80</c:v>
                   </c:pt>
                 </c:lvl>
                 <c:lvl>
@@ -6217,31 +6229,31 @@
                       <c:ptCount val="9"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>6</c:v>
+                          <c:v>20</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>12</c:v>
+                          <c:v>40</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>24</c:v>
+                          <c:v>80</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>6</c:v>
+                          <c:v>20</c:v>
                         </c:pt>
                         <c:pt idx="4">
-                          <c:v>12</c:v>
+                          <c:v>40</c:v>
                         </c:pt>
                         <c:pt idx="5">
-                          <c:v>24</c:v>
+                          <c:v>80</c:v>
                         </c:pt>
                         <c:pt idx="6">
-                          <c:v>6</c:v>
+                          <c:v>20</c:v>
                         </c:pt>
                         <c:pt idx="7">
-                          <c:v>12</c:v>
+                          <c:v>40</c:v>
                         </c:pt>
                         <c:pt idx="8">
-                          <c:v>24</c:v>
+                          <c:v>80</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -6415,31 +6427,31 @@
                       <c:ptCount val="9"/>
                       <c:lvl>
                         <c:pt idx="0">
-                          <c:v>6</c:v>
+                          <c:v>20</c:v>
                         </c:pt>
                         <c:pt idx="1">
-                          <c:v>12</c:v>
+                          <c:v>40</c:v>
                         </c:pt>
                         <c:pt idx="2">
-                          <c:v>24</c:v>
+                          <c:v>80</c:v>
                         </c:pt>
                         <c:pt idx="3">
-                          <c:v>6</c:v>
+                          <c:v>20</c:v>
                         </c:pt>
                         <c:pt idx="4">
-                          <c:v>12</c:v>
+                          <c:v>40</c:v>
                         </c:pt>
                         <c:pt idx="5">
-                          <c:v>24</c:v>
+                          <c:v>80</c:v>
                         </c:pt>
                         <c:pt idx="6">
-                          <c:v>6</c:v>
+                          <c:v>20</c:v>
                         </c:pt>
                         <c:pt idx="7">
-                          <c:v>12</c:v>
+                          <c:v>40</c:v>
                         </c:pt>
                         <c:pt idx="8">
-                          <c:v>24</c:v>
+                          <c:v>80</c:v>
                         </c:pt>
                       </c:lvl>
                       <c:lvl>
@@ -7013,6 +7025,39 @@
           </c:spPr>
           <c:invertIfNegative val="0"/>
           <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{82C1F054-3B55-4F8E-BCA4-952E2AFFD793}" type="VALUE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="nl-BE"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inBase"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-8A9A-4484-82F2-4A65FCB8604D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
             <c:spPr>
               <a:noFill/>
               <a:ln>
@@ -11784,7 +11829,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>general!$A$11</c:f>
+              <c:f>general!$A$13</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11842,7 +11887,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>general!$B$11:$J$11</c:f>
+              <c:f>general!$B$13:$J$13</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -11887,7 +11932,7 @@
           <c:order val="10"/>
           <c:tx>
             <c:strRef>
-              <c:f>general!$A$12</c:f>
+              <c:f>general!$A$14</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -11945,7 +11990,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>general!$B$12:$J$12</c:f>
+              <c:f>general!$B$14:$J$14</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -11990,7 +12035,7 @@
           <c:order val="11"/>
           <c:tx>
             <c:strRef>
-              <c:f>general!$A$13</c:f>
+              <c:f>general!$A$15</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12048,7 +12093,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>general!$B$13:$J$13</c:f>
+              <c:f>general!$B$15:$J$15</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -12093,7 +12138,7 @@
           <c:order val="12"/>
           <c:tx>
             <c:strRef>
-              <c:f>general!$A$14</c:f>
+              <c:f>general!$A$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -12152,7 +12197,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>general!$B$14:$J$14</c:f>
+              <c:f>general!$B$16:$J$16</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
@@ -12300,10 +12345,10 @@
                         <c:v>11</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>684</c:v>
+                        <c:v>1235</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>684</c:v>
+                        <c:v>1235</c:v>
                       </c:pt>
                       <c:pt idx="5">
                         <c:v>6580</c:v>
@@ -12336,7 +12381,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$A$3</c15:sqref>
+                          <c15:sqref>general!$A$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12404,7 +12449,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$B$3:$J$3</c15:sqref>
+                          <c15:sqref>general!$B$5:$J$5</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12457,7 +12502,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$A$4</c15:sqref>
+                          <c15:sqref>general!$A$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12525,7 +12570,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$B$4:$J$4</c15:sqref>
+                          <c15:sqref>general!$B$6:$J$6</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12578,7 +12623,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$A$5</c15:sqref>
+                          <c15:sqref>general!$A$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12646,7 +12691,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$B$5:$J$5</c15:sqref>
+                          <c15:sqref>general!$B$7:$J$7</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12699,7 +12744,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$A$6</c15:sqref>
+                          <c15:sqref>general!$A$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12767,7 +12812,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$B$6:$J$6</c15:sqref>
+                          <c15:sqref>general!$B$8:$J$8</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12820,7 +12865,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$A$7</c15:sqref>
+                          <c15:sqref>general!$A$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12888,7 +12933,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$B$7:$J$7</c15:sqref>
+                          <c15:sqref>general!$B$9:$J$9</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -12941,7 +12986,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$A$8</c15:sqref>
+                          <c15:sqref>general!$A$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -13011,7 +13056,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$B$8:$J$8</c15:sqref>
+                          <c15:sqref>general!$B$10:$J$10</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -13064,7 +13109,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$A$9</c15:sqref>
+                          <c15:sqref>general!$A$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -13134,7 +13179,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$B$9:$J$9</c15:sqref>
+                          <c15:sqref>general!$B$11:$J$11</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -13187,7 +13232,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$A$10</c15:sqref>
+                          <c15:sqref>general!$A$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -13257,7 +13302,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$B$10:$J$10</c15:sqref>
+                          <c15:sqref>general!$B$12:$J$12</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -13310,7 +13355,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$A$15</c15:sqref>
+                          <c15:sqref>general!$A$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -13381,7 +13426,7 @@
                     <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>general!$B$15:$J$15</c15:sqref>
+                          <c15:sqref>general!$B$17:$J$17</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -27512,13 +27557,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>838200</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -28983,10 +29028,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29037,10 +29082,10 @@
         <v>11</v>
       </c>
       <c r="E2">
-        <v>684</v>
+        <v>1235</v>
       </c>
       <c r="F2">
-        <v>684</v>
+        <v>1235</v>
       </c>
       <c r="G2">
         <v>6580</v>
@@ -29057,462 +29102,535 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B3" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-      <c r="F3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G3" t="s">
-        <v>67</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>67</v>
+        <v>75</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>36</v>
+      </c>
+      <c r="D3">
+        <v>44</v>
+      </c>
+      <c r="E3">
+        <v>4940</v>
+      </c>
+      <c r="F3">
+        <v>4940</v>
+      </c>
+      <c r="G3">
+        <v>26320</v>
+      </c>
+      <c r="H3">
+        <v>19941</v>
+      </c>
+      <c r="I3">
+        <v>19941</v>
+      </c>
+      <c r="J3">
+        <v>111998</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>49</v>
+        <v>76</v>
       </c>
       <c r="B4">
-        <v>88</v>
+        <f>B3/B2</f>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>146</v>
+        <f t="shared" ref="C4:J4" si="0">C3/C2</f>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>96</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>1392</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F4">
-        <v>1490</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="G4">
-        <v>4325</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="H4">
-        <v>1312</v>
+        <f t="shared" si="0"/>
+        <v>6.476453393959078</v>
       </c>
       <c r="I4">
-        <v>864</v>
+        <f t="shared" si="0"/>
+        <v>6.476453393959078</v>
       </c>
       <c r="J4">
-        <v>3041</v>
+        <f t="shared" si="0"/>
+        <v>5.9333545242636152</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="B5">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>11</v>
-      </c>
-      <c r="D5">
-        <v>10</v>
-      </c>
-      <c r="E5">
-        <v>34</v>
-      </c>
-      <c r="F5">
-        <v>38</v>
-      </c>
-      <c r="G5">
-        <v>107</v>
-      </c>
-      <c r="H5">
-        <v>34</v>
-      </c>
-      <c r="I5">
-        <v>22</v>
-      </c>
-      <c r="J5">
-        <v>78</v>
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>67</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>88</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="D6">
-        <v>0.01</v>
+        <v>96</v>
       </c>
       <c r="E6">
-        <v>1.37</v>
+        <v>1392</v>
       </c>
       <c r="F6">
-        <v>1.82</v>
+        <v>1490</v>
       </c>
       <c r="G6">
-        <v>15.88</v>
+        <v>4325</v>
       </c>
       <c r="H6">
-        <v>1.51</v>
+        <v>1312</v>
       </c>
       <c r="I6">
-        <v>0.53</v>
+        <v>864</v>
       </c>
       <c r="J6">
-        <v>14.65</v>
+        <v>3041</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B7">
-        <v>0.33</v>
+        <v>7</v>
       </c>
       <c r="C7">
-        <v>0.65</v>
+        <v>11</v>
       </c>
       <c r="D7">
-        <v>1.06</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>7.68</v>
+        <v>34</v>
       </c>
       <c r="F7">
-        <v>7.98</v>
+        <v>38</v>
       </c>
       <c r="G7">
-        <v>15.41</v>
+        <v>107</v>
       </c>
       <c r="H7">
-        <v>23.49</v>
+        <v>34</v>
       </c>
       <c r="I7">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J7">
-        <v>67.55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B8">
-        <v>10.48</v>
+        <v>0</v>
       </c>
       <c r="C8">
-        <v>17.95</v>
+        <v>0</v>
       </c>
       <c r="D8">
-        <v>7.17</v>
+        <v>0.01</v>
       </c>
       <c r="E8">
-        <v>32.81</v>
+        <v>1.37</v>
       </c>
       <c r="F8">
-        <v>36.81</v>
+        <v>1.82</v>
       </c>
       <c r="G8">
-        <v>75.44</v>
+        <v>15.88</v>
       </c>
       <c r="H8">
-        <v>135.86000000000001</v>
+        <v>1.51</v>
       </c>
       <c r="I8">
-        <v>62.03</v>
+        <v>0.53</v>
       </c>
       <c r="J8">
-        <v>460.46</v>
+        <v>14.65</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="B9">
-        <v>10.97</v>
+        <v>0.33</v>
       </c>
       <c r="C9">
-        <v>18.87</v>
+        <v>0.65</v>
       </c>
       <c r="D9">
-        <v>8.4600000000000009</v>
+        <v>1.06</v>
       </c>
       <c r="E9">
-        <v>42.43</v>
+        <v>7.68</v>
       </c>
       <c r="F9">
-        <v>47.32</v>
+        <v>7.98</v>
       </c>
       <c r="G9">
-        <v>108.28</v>
+        <v>15.41</v>
       </c>
       <c r="H9">
-        <v>161.85</v>
+        <v>23.49</v>
       </c>
       <c r="I9">
-        <v>76.989999999999995</v>
+        <v>14</v>
       </c>
       <c r="J9">
-        <v>544.73</v>
+        <v>67.55</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="B10">
-        <v>27.24</v>
+        <v>10.48</v>
       </c>
       <c r="C10">
-        <v>44.76</v>
+        <v>17.95</v>
       </c>
       <c r="D10">
-        <v>28.72</v>
+        <v>7.17</v>
       </c>
       <c r="E10">
-        <v>106.2</v>
+        <v>32.81</v>
       </c>
       <c r="F10">
-        <v>114.36</v>
+        <v>36.81</v>
       </c>
       <c r="G10">
-        <v>325.10000000000002</v>
+        <v>75.44</v>
       </c>
       <c r="H10">
-        <v>97.44</v>
+        <v>135.86000000000001</v>
       </c>
       <c r="I10">
-        <v>65.52</v>
+        <v>62.03</v>
       </c>
       <c r="J10">
-        <v>227.27</v>
+        <v>460.46</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11" s="4">
-        <f>B6/B5</f>
-        <v>0</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" ref="C11:J11" si="0">C6/C5</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>1E-3</v>
-      </c>
-      <c r="E11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.0294117647058827E-2</v>
-      </c>
-      <c r="F11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.7894736842105268E-2</v>
-      </c>
-      <c r="G11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.14841121495327103</v>
-      </c>
-      <c r="H11" s="4">
-        <f t="shared" si="0"/>
-        <v>4.4411764705882352E-2</v>
-      </c>
-      <c r="I11" s="4">
-        <f t="shared" si="0"/>
-        <v>2.4090909090909093E-2</v>
-      </c>
-      <c r="J11" s="4">
-        <f t="shared" si="0"/>
-        <v>0.18782051282051282</v>
+        <v>63</v>
+      </c>
+      <c r="B11">
+        <v>10.97</v>
+      </c>
+      <c r="C11">
+        <v>18.87</v>
+      </c>
+      <c r="D11">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="E11">
+        <v>42.43</v>
+      </c>
+      <c r="F11">
+        <v>47.32</v>
+      </c>
+      <c r="G11">
+        <v>108.28</v>
+      </c>
+      <c r="H11">
+        <v>161.85</v>
+      </c>
+      <c r="I11">
+        <v>76.989999999999995</v>
+      </c>
+      <c r="J11">
+        <v>544.73</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>71</v>
-      </c>
-      <c r="B12" s="4">
-        <f>B7/B5</f>
-        <v>4.7142857142857146E-2</v>
-      </c>
-      <c r="C12" s="4">
-        <f t="shared" ref="C12:J12" si="1">C7/C5</f>
-        <v>5.909090909090909E-2</v>
-      </c>
-      <c r="D12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.10600000000000001</v>
-      </c>
-      <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.22588235294117645</v>
-      </c>
-      <c r="F12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.21000000000000002</v>
-      </c>
-      <c r="G12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.14401869158878505</v>
-      </c>
-      <c r="H12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.69088235294117639</v>
-      </c>
-      <c r="I12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.63636363636363635</v>
-      </c>
-      <c r="J12" s="4">
-        <f t="shared" si="1"/>
-        <v>0.86602564102564095</v>
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>27.24</v>
+      </c>
+      <c r="C12">
+        <v>44.76</v>
+      </c>
+      <c r="D12">
+        <v>28.72</v>
+      </c>
+      <c r="E12">
+        <v>106.2</v>
+      </c>
+      <c r="F12">
+        <v>114.36</v>
+      </c>
+      <c r="G12">
+        <v>325.10000000000002</v>
+      </c>
+      <c r="H12">
+        <v>97.44</v>
+      </c>
+      <c r="I12">
+        <v>65.52</v>
+      </c>
+      <c r="J12">
+        <v>227.27</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B13" s="4">
-        <f>B8/B5</f>
-        <v>1.4971428571428571</v>
+        <f>B8/B7</f>
+        <v>0</v>
       </c>
       <c r="C13" s="4">
-        <f t="shared" ref="C13:J13" si="2">C8/C5</f>
-        <v>1.6318181818181818</v>
+        <f t="shared" ref="C13:J13" si="1">C8/C7</f>
+        <v>0</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.71699999999999997</v>
+        <f t="shared" si="1"/>
+        <v>1E-3</v>
       </c>
       <c r="E13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.96500000000000008</v>
+        <f t="shared" si="1"/>
+        <v>4.0294117647058827E-2</v>
       </c>
       <c r="F13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.96868421052631581</v>
+        <f t="shared" si="1"/>
+        <v>4.7894736842105268E-2</v>
       </c>
       <c r="G13" s="4">
-        <f t="shared" si="2"/>
-        <v>0.70504672897196263</v>
+        <f t="shared" si="1"/>
+        <v>0.14841121495327103</v>
       </c>
       <c r="H13" s="4">
-        <f t="shared" si="2"/>
-        <v>3.9958823529411767</v>
+        <f t="shared" si="1"/>
+        <v>4.4411764705882352E-2</v>
       </c>
       <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>2.8195454545454548</v>
+        <f t="shared" si="1"/>
+        <v>2.4090909090909093E-2</v>
       </c>
       <c r="J13" s="4">
-        <f t="shared" si="2"/>
-        <v>5.9033333333333333</v>
+        <f t="shared" si="1"/>
+        <v>0.18782051282051282</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" s="4">
-        <f>B9/B5</f>
-        <v>1.5671428571428572</v>
+        <f>B9/B7</f>
+        <v>4.7142857142857146E-2</v>
       </c>
       <c r="C14" s="4">
-        <f t="shared" ref="C14:J14" si="3">C9/C5</f>
-        <v>1.7154545454545456</v>
+        <f t="shared" ref="C14:J14" si="2">C9/C7</f>
+        <v>5.909090909090909E-2</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="3"/>
-        <v>0.84600000000000009</v>
+        <f t="shared" si="2"/>
+        <v>0.10600000000000001</v>
       </c>
       <c r="E14" s="4">
-        <f t="shared" si="3"/>
-        <v>1.2479411764705883</v>
+        <f t="shared" si="2"/>
+        <v>0.22588235294117645</v>
       </c>
       <c r="F14" s="4">
-        <f t="shared" si="3"/>
-        <v>1.2452631578947368</v>
+        <f t="shared" si="2"/>
+        <v>0.21000000000000002</v>
       </c>
       <c r="G14" s="4">
-        <f t="shared" si="3"/>
-        <v>1.0119626168224298</v>
+        <f t="shared" si="2"/>
+        <v>0.14401869158878505</v>
       </c>
       <c r="H14" s="4">
-        <f t="shared" si="3"/>
-        <v>4.7602941176470583</v>
+        <f t="shared" si="2"/>
+        <v>0.69088235294117639</v>
       </c>
       <c r="I14" s="4">
-        <f t="shared" si="3"/>
-        <v>3.4995454545454545</v>
+        <f t="shared" si="2"/>
+        <v>0.63636363636363635</v>
       </c>
       <c r="J14" s="4">
-        <f t="shared" si="3"/>
-        <v>6.983717948717949</v>
+        <f t="shared" si="2"/>
+        <v>0.86602564102564095</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>72</v>
+      </c>
+      <c r="B15" s="4">
+        <f>B10/B7</f>
+        <v>1.4971428571428571</v>
+      </c>
+      <c r="C15" s="4">
+        <f t="shared" ref="C15:J15" si="3">C10/C7</f>
+        <v>1.6318181818181818</v>
+      </c>
+      <c r="D15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.71699999999999997</v>
+      </c>
+      <c r="E15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.96500000000000008</v>
+      </c>
+      <c r="F15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.96868421052631581</v>
+      </c>
+      <c r="G15" s="4">
+        <f t="shared" si="3"/>
+        <v>0.70504672897196263</v>
+      </c>
+      <c r="H15" s="4">
+        <f t="shared" si="3"/>
+        <v>3.9958823529411767</v>
+      </c>
+      <c r="I15" s="4">
+        <f t="shared" si="3"/>
+        <v>2.8195454545454548</v>
+      </c>
+      <c r="J15" s="4">
+        <f t="shared" si="3"/>
+        <v>5.9033333333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="4">
+        <f>B11/B7</f>
+        <v>1.5671428571428572</v>
+      </c>
+      <c r="C16" s="4">
+        <f t="shared" ref="C16:J16" si="4">C11/C7</f>
+        <v>1.7154545454545456</v>
+      </c>
+      <c r="D16" s="4">
+        <f t="shared" si="4"/>
+        <v>0.84600000000000009</v>
+      </c>
+      <c r="E16" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2479411764705883</v>
+      </c>
+      <c r="F16" s="4">
+        <f t="shared" si="4"/>
+        <v>1.2452631578947368</v>
+      </c>
+      <c r="G16" s="4">
+        <f t="shared" si="4"/>
+        <v>1.0119626168224298</v>
+      </c>
+      <c r="H16" s="4">
+        <f t="shared" si="4"/>
+        <v>4.7602941176470583</v>
+      </c>
+      <c r="I16" s="4">
+        <f t="shared" si="4"/>
+        <v>3.4995454545454545</v>
+      </c>
+      <c r="J16" s="4">
+        <f t="shared" si="4"/>
+        <v>6.983717948717949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="4">
-        <f>B4/B5</f>
+      <c r="B17" s="4">
+        <f>B6/B7</f>
         <v>12.571428571428571</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" ref="C15:J15" si="4">C4/C5</f>
+      <c r="C17" s="4">
+        <f t="shared" ref="C17:J17" si="5">C6/C7</f>
         <v>13.272727272727273</v>
       </c>
-      <c r="D15" s="4">
-        <f t="shared" si="4"/>
+      <c r="D17" s="4">
+        <f t="shared" si="5"/>
         <v>9.6</v>
       </c>
-      <c r="E15" s="4">
-        <f t="shared" si="4"/>
+      <c r="E17" s="4">
+        <f t="shared" si="5"/>
         <v>40.941176470588232</v>
       </c>
-      <c r="F15" s="4">
-        <f t="shared" si="4"/>
+      <c r="F17" s="4">
+        <f t="shared" si="5"/>
         <v>39.210526315789473</v>
       </c>
-      <c r="G15" s="4">
-        <f t="shared" si="4"/>
+      <c r="G17" s="4">
+        <f t="shared" si="5"/>
         <v>40.420560747663551</v>
       </c>
-      <c r="H15" s="4">
-        <f t="shared" si="4"/>
+      <c r="H17" s="4">
+        <f t="shared" si="5"/>
         <v>38.588235294117645</v>
       </c>
-      <c r="I15" s="4">
-        <f t="shared" si="4"/>
+      <c r="I17" s="4">
+        <f t="shared" si="5"/>
         <v>39.272727272727273</v>
       </c>
-      <c r="J15" s="4">
-        <f t="shared" si="4"/>
+      <c r="J17" s="4">
+        <f t="shared" si="5"/>
         <v>38.987179487179489</v>
       </c>
     </row>
@@ -30092,8 +30210,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30390,8 +30508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30409,31 +30527,31 @@
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="D2">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="H2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="N2">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="O2">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
@@ -30759,10 +30877,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30972,6 +31090,64 @@
       <c r="K9">
         <f t="shared" ref="K9" si="3">1.96*K6/SQRT(K7)</f>
         <v>0.92661059998253847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10">
+        <f>B4/B3</f>
+        <v>0.13172645739910316</v>
+      </c>
+      <c r="C10">
+        <f t="shared" ref="C10:K10" si="4">C4/C3</f>
+        <v>0.37667698658410731</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="4"/>
+        <v>0.10194174757281553</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="4"/>
+        <v>0.19806206021455763</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.14697383207577461</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="4"/>
+        <v>0.17841462250644269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B11">
+        <f>B6/B5</f>
+        <v>6.720430107526881E-3</v>
+      </c>
+      <c r="C11">
+        <f t="shared" ref="C11:K11" si="5">C6/C5</f>
+        <v>3.9197602029052347E-3</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="5"/>
+        <v>1.655535697488477E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>6.8834796488427769E-3</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="5"/>
+        <v>9.0035407182599905E-3</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="5"/>
+        <v>3.240489866695568E-2</v>
       </c>
     </row>
   </sheetData>
@@ -30984,7 +31160,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P9"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>

--- a/experiments.xlsx
+++ b/experiments.xlsx
@@ -31773,7 +31773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
